--- a/excels/lite/lite-Ages-Gender.xlsx
+++ b/excels/lite/lite-Ages-Gender.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
   <si>
     <t>Date</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>14-02-2019</t>
+  </si>
+  <si>
+    <t>16-02-2019</t>
   </si>
 </sst>
 </file>
@@ -401,7 +404,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
@@ -976,6 +979,53 @@
         <v>4</v>
       </c>
     </row>
+    <row r="13" spans="1:15">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>51</v>
+      </c>
+      <c r="D13" t="n">
+        <v>49</v>
+      </c>
+      <c r="E13" t="n">
+        <v>32</v>
+      </c>
+      <c r="F13" t="n">
+        <v>36</v>
+      </c>
+      <c r="G13" t="n">
+        <v>11</v>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>78</v>
+      </c>
+      <c r="K13" t="n">
+        <v>25</v>
+      </c>
+      <c r="L13" t="n">
+        <v>24</v>
+      </c>
+      <c r="M13" t="n">
+        <v>19</v>
+      </c>
+      <c r="N13" t="n">
+        <v>11</v>
+      </c>
+      <c r="O13" t="n">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/excels/lite/lite-Ages-Gender.xlsx
+++ b/excels/lite/lite-Ages-Gender.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9660" windowWidth="16100" xWindow="240" yWindow="460"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="31280" windowHeight="14480"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" concurrentCalc="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -59,34 +64,24 @@
   </si>
   <si>
     <t>M.65+</t>
-  </si>
-  <si>
-    <t>13-02-2019</t>
-  </si>
-  <si>
-    <t>14-02-2019</t>
-  </si>
-  <si>
-    <t>16-02-2019</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -102,16 +97,17 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -399,20 +395,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" width="10"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -463,570 +455,575 @@
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="1">
         <v>43499</v>
       </c>
-      <c r="B2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" t="n">
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
         <v>42</v>
       </c>
-      <c r="D2" t="n">
-        <v>49</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="D2">
+        <v>49</v>
+      </c>
+      <c r="E2">
         <v>30</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>34</v>
       </c>
-      <c r="G2" t="n">
-        <v>11</v>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="G2">
+        <v>11</v>
+      </c>
+      <c r="H2">
+        <v>4</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
         <v>75</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>20</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2">
         <v>20</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2">
         <v>17</v>
       </c>
-      <c r="N2" t="n">
-        <v>11</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="N2">
+        <v>11</v>
+      </c>
+      <c r="O2">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="1">
         <v>43501</v>
       </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
         <v>45</v>
       </c>
-      <c r="D3" t="n">
-        <v>49</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="D3">
+        <v>49</v>
+      </c>
+      <c r="E3">
         <v>31</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>37</v>
       </c>
-      <c r="G3" t="n">
-        <v>11</v>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
+      <c r="G3">
+        <v>11</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
         <v>76</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>20</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3">
         <v>20</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3">
         <v>18</v>
       </c>
-      <c r="N3" t="n">
-        <v>11</v>
-      </c>
-      <c r="O3" t="n">
+      <c r="N3">
+        <v>11</v>
+      </c>
+      <c r="O3">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="1">
         <v>43503</v>
       </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
         <v>51</v>
       </c>
-      <c r="D4" t="n">
-        <v>49</v>
-      </c>
-      <c r="E4" t="n">
+      <c r="D4">
+        <v>49</v>
+      </c>
+      <c r="E4">
         <v>31</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>35</v>
       </c>
-      <c r="G4" t="n">
-        <v>11</v>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="G4">
+        <v>11</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
         <v>77</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>22</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4">
         <v>21</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4">
         <v>19</v>
       </c>
-      <c r="N4" t="n">
-        <v>11</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="N4">
+        <v>11</v>
+      </c>
+      <c r="O4">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="1">
         <v>43504</v>
       </c>
-      <c r="B5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C5" t="n">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
         <v>51</v>
       </c>
-      <c r="D5" t="n">
-        <v>49</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="D5">
+        <v>49</v>
+      </c>
+      <c r="E5">
         <v>32</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>37</v>
       </c>
-      <c r="G5" t="n">
-        <v>11</v>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
+      <c r="G5">
+        <v>11</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
         <v>78</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>25</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5">
         <v>22</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M5">
         <v>19</v>
       </c>
-      <c r="N5" t="n">
-        <v>11</v>
-      </c>
-      <c r="O5" t="n">
+      <c r="N5">
+        <v>11</v>
+      </c>
+      <c r="O5">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="1">
         <v>43505</v>
       </c>
-      <c r="B6" t="n">
-        <v>2</v>
-      </c>
-      <c r="C6" t="n">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
         <v>51</v>
       </c>
-      <c r="D6" t="n">
-        <v>49</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="D6">
+        <v>49</v>
+      </c>
+      <c r="E6">
         <v>32</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>37</v>
       </c>
-      <c r="G6" t="n">
-        <v>11</v>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
+      <c r="G6">
+        <v>11</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
         <v>78</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6">
         <v>25</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6">
         <v>24</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M6">
         <v>19</v>
       </c>
-      <c r="N6" t="n">
-        <v>11</v>
-      </c>
-      <c r="O6" t="n">
+      <c r="N6">
+        <v>11</v>
+      </c>
+      <c r="O6">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="1">
         <v>43507</v>
       </c>
-      <c r="B7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" t="n">
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
         <v>51</v>
       </c>
-      <c r="D7" t="n">
-        <v>49</v>
-      </c>
-      <c r="E7" t="n">
+      <c r="D7">
+        <v>49</v>
+      </c>
+      <c r="E7">
         <v>32</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>37</v>
       </c>
-      <c r="G7" t="n">
-        <v>11</v>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
+      <c r="G7">
+        <v>11</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
         <v>78</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7">
         <v>25</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L7">
         <v>24</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M7">
         <v>19</v>
       </c>
-      <c r="N7" t="n">
-        <v>11</v>
-      </c>
-      <c r="O7" t="n">
+      <c r="N7">
+        <v>11</v>
+      </c>
+      <c r="O7">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="1">
         <v>43507</v>
       </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
         <v>51</v>
       </c>
-      <c r="D8" t="n">
-        <v>49</v>
-      </c>
-      <c r="E8" t="n">
+      <c r="D8">
+        <v>49</v>
+      </c>
+      <c r="E8">
         <v>32</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>37</v>
       </c>
-      <c r="G8" t="n">
-        <v>11</v>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
+      <c r="G8">
+        <v>11</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
         <v>78</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8">
         <v>25</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L8">
         <v>24</v>
       </c>
-      <c r="M8" t="n">
+      <c r="M8">
         <v>19</v>
       </c>
-      <c r="N8" t="n">
-        <v>11</v>
-      </c>
-      <c r="O8" t="n">
+      <c r="N8">
+        <v>11</v>
+      </c>
+      <c r="O8">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="1" t="n">
+      <c r="A9" s="1">
         <v>43507</v>
       </c>
-      <c r="B9" t="n">
-        <v>2</v>
-      </c>
-      <c r="C9" t="n">
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
         <v>51</v>
       </c>
-      <c r="D9" t="n">
-        <v>49</v>
-      </c>
-      <c r="E9" t="n">
+      <c r="D9">
+        <v>49</v>
+      </c>
+      <c r="E9">
         <v>32</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>37</v>
       </c>
-      <c r="G9" t="n">
-        <v>11</v>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
+      <c r="G9">
+        <v>11</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
         <v>78</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9">
         <v>25</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L9">
         <v>24</v>
       </c>
-      <c r="M9" t="n">
+      <c r="M9">
         <v>19</v>
       </c>
-      <c r="N9" t="n">
-        <v>11</v>
-      </c>
-      <c r="O9" t="n">
+      <c r="N9">
+        <v>11</v>
+      </c>
+      <c r="O9">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="1" t="n">
+      <c r="A10" s="1">
         <v>43508</v>
       </c>
-      <c r="B10" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" t="n">
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
         <v>51</v>
       </c>
-      <c r="D10" t="n">
-        <v>49</v>
-      </c>
-      <c r="E10" t="n">
+      <c r="D10">
+        <v>49</v>
+      </c>
+      <c r="E10">
         <v>32</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>37</v>
       </c>
-      <c r="G10" t="n">
-        <v>11</v>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
+      <c r="G10">
+        <v>11</v>
+      </c>
+      <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
         <v>78</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10">
         <v>25</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L10">
         <v>24</v>
       </c>
-      <c r="M10" t="n">
+      <c r="M10">
         <v>19</v>
       </c>
-      <c r="N10" t="n">
-        <v>11</v>
-      </c>
-      <c r="O10" t="n">
+      <c r="N10">
+        <v>11</v>
+      </c>
+      <c r="O10">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="n">
-        <v>2</v>
-      </c>
-      <c r="C11" t="n">
+      <c r="A11" s="1">
+        <v>43509</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
         <v>51</v>
       </c>
-      <c r="D11" t="n">
-        <v>49</v>
-      </c>
-      <c r="E11" t="n">
+      <c r="D11">
+        <v>49</v>
+      </c>
+      <c r="E11">
         <v>32</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>37</v>
       </c>
-      <c r="G11" t="n">
-        <v>11</v>
-      </c>
-      <c r="H11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="n">
+      <c r="G11">
+        <v>11</v>
+      </c>
+      <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
         <v>78</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11">
         <v>25</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L11">
         <v>24</v>
       </c>
-      <c r="M11" t="n">
+      <c r="M11">
         <v>19</v>
       </c>
-      <c r="N11" t="n">
-        <v>11</v>
-      </c>
-      <c r="O11" t="n">
+      <c r="N11">
+        <v>11</v>
+      </c>
+      <c r="O11">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="n">
-        <v>2</v>
-      </c>
-      <c r="C12" t="n">
+      <c r="A12" s="1">
+        <v>43510</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
         <v>51</v>
       </c>
-      <c r="D12" t="n">
-        <v>49</v>
-      </c>
-      <c r="E12" t="n">
+      <c r="D12">
+        <v>49</v>
+      </c>
+      <c r="E12">
         <v>32</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>36</v>
       </c>
-      <c r="G12" t="n">
-        <v>11</v>
-      </c>
-      <c r="H12" t="n">
-        <v>4</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="n">
+      <c r="G12">
+        <v>11</v>
+      </c>
+      <c r="H12">
+        <v>4</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
         <v>78</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K12">
         <v>25</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L12">
         <v>24</v>
       </c>
-      <c r="M12" t="n">
+      <c r="M12">
         <v>19</v>
       </c>
-      <c r="N12" t="n">
-        <v>11</v>
-      </c>
-      <c r="O12" t="n">
+      <c r="N12">
+        <v>11</v>
+      </c>
+      <c r="O12">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" t="n">
-        <v>2</v>
-      </c>
-      <c r="C13" t="n">
+      <c r="A13" s="1">
+        <v>43512</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
         <v>51</v>
       </c>
-      <c r="D13" t="n">
-        <v>49</v>
-      </c>
-      <c r="E13" t="n">
+      <c r="D13">
+        <v>49</v>
+      </c>
+      <c r="E13">
         <v>32</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>36</v>
       </c>
-      <c r="G13" t="n">
-        <v>11</v>
-      </c>
-      <c r="H13" t="n">
-        <v>4</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="n">
+      <c r="G13">
+        <v>11</v>
+      </c>
+      <c r="H13">
+        <v>4</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
         <v>78</v>
       </c>
-      <c r="K13" t="n">
+      <c r="K13">
         <v>25</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L13">
         <v>24</v>
       </c>
-      <c r="M13" t="n">
+      <c r="M13">
         <v>19</v>
       </c>
-      <c r="N13" t="n">
-        <v>11</v>
-      </c>
-      <c r="O13" t="n">
+      <c r="N13">
+        <v>11</v>
+      </c>
+      <c r="O13">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/excels/lite/lite-Ages-Gender.xlsx
+++ b/excels/lite/lite-Ages-Gender.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="31280" windowHeight="14480"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="14480" windowWidth="31280" xWindow="240" yWindow="460"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="0" concurrentCalc="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
   <si>
     <t>Date</t>
   </si>
@@ -64,24 +59,28 @@
   </si>
   <si>
     <t>M.65+</t>
+  </si>
+  <si>
+    <t>19-02-2019</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -97,17 +96,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -395,16 +393,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -455,575 +457,617 @@
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="1">
+      <c r="A2" s="1" t="n">
         <v>43499</v>
       </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2">
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="n">
         <v>42</v>
       </c>
-      <c r="D2">
-        <v>49</v>
-      </c>
-      <c r="E2">
+      <c r="D2" t="n">
+        <v>49</v>
+      </c>
+      <c r="E2" t="n">
         <v>30</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>34</v>
       </c>
-      <c r="G2">
-        <v>11</v>
-      </c>
-      <c r="H2">
-        <v>4</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
+      <c r="G2" t="n">
+        <v>11</v>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
         <v>75</v>
       </c>
-      <c r="K2">
+      <c r="K2" t="n">
         <v>20</v>
       </c>
-      <c r="L2">
+      <c r="L2" t="n">
         <v>20</v>
       </c>
-      <c r="M2">
+      <c r="M2" t="n">
         <v>17</v>
       </c>
-      <c r="N2">
-        <v>11</v>
-      </c>
-      <c r="O2">
+      <c r="N2" t="n">
+        <v>11</v>
+      </c>
+      <c r="O2" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="1">
+      <c r="A3" s="1" t="n">
         <v>43501</v>
       </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
         <v>45</v>
       </c>
-      <c r="D3">
-        <v>49</v>
-      </c>
-      <c r="E3">
+      <c r="D3" t="n">
+        <v>49</v>
+      </c>
+      <c r="E3" t="n">
         <v>31</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>37</v>
       </c>
-      <c r="G3">
-        <v>11</v>
-      </c>
-      <c r="H3">
-        <v>4</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
+      <c r="G3" t="n">
+        <v>11</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
         <v>76</v>
       </c>
-      <c r="K3">
+      <c r="K3" t="n">
         <v>20</v>
       </c>
-      <c r="L3">
+      <c r="L3" t="n">
         <v>20</v>
       </c>
-      <c r="M3">
+      <c r="M3" t="n">
         <v>18</v>
       </c>
-      <c r="N3">
-        <v>11</v>
-      </c>
-      <c r="O3">
+      <c r="N3" t="n">
+        <v>11</v>
+      </c>
+      <c r="O3" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="1">
+      <c r="A4" s="1" t="n">
         <v>43503</v>
       </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
         <v>51</v>
       </c>
-      <c r="D4">
-        <v>49</v>
-      </c>
-      <c r="E4">
+      <c r="D4" t="n">
+        <v>49</v>
+      </c>
+      <c r="E4" t="n">
         <v>31</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>35</v>
       </c>
-      <c r="G4">
-        <v>11</v>
-      </c>
-      <c r="H4">
-        <v>4</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
+      <c r="G4" t="n">
+        <v>11</v>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
         <v>77</v>
       </c>
-      <c r="K4">
+      <c r="K4" t="n">
         <v>22</v>
       </c>
-      <c r="L4">
+      <c r="L4" t="n">
         <v>21</v>
       </c>
-      <c r="M4">
+      <c r="M4" t="n">
         <v>19</v>
       </c>
-      <c r="N4">
-        <v>11</v>
-      </c>
-      <c r="O4">
+      <c r="N4" t="n">
+        <v>11</v>
+      </c>
+      <c r="O4" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="1">
+      <c r="A5" s="1" t="n">
         <v>43504</v>
       </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="n">
         <v>51</v>
       </c>
-      <c r="D5">
-        <v>49</v>
-      </c>
-      <c r="E5">
+      <c r="D5" t="n">
+        <v>49</v>
+      </c>
+      <c r="E5" t="n">
         <v>32</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>37</v>
       </c>
-      <c r="G5">
-        <v>11</v>
-      </c>
-      <c r="H5">
-        <v>4</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
+      <c r="G5" t="n">
+        <v>11</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
         <v>78</v>
       </c>
-      <c r="K5">
+      <c r="K5" t="n">
         <v>25</v>
       </c>
-      <c r="L5">
+      <c r="L5" t="n">
         <v>22</v>
       </c>
-      <c r="M5">
+      <c r="M5" t="n">
         <v>19</v>
       </c>
-      <c r="N5">
-        <v>11</v>
-      </c>
-      <c r="O5">
+      <c r="N5" t="n">
+        <v>11</v>
+      </c>
+      <c r="O5" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="1">
+      <c r="A6" s="1" t="n">
         <v>43505</v>
       </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="n">
         <v>51</v>
       </c>
-      <c r="D6">
-        <v>49</v>
-      </c>
-      <c r="E6">
+      <c r="D6" t="n">
+        <v>49</v>
+      </c>
+      <c r="E6" t="n">
         <v>32</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>37</v>
       </c>
-      <c r="G6">
-        <v>11</v>
-      </c>
-      <c r="H6">
-        <v>4</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
+      <c r="G6" t="n">
+        <v>11</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
         <v>78</v>
       </c>
-      <c r="K6">
+      <c r="K6" t="n">
         <v>25</v>
       </c>
-      <c r="L6">
+      <c r="L6" t="n">
         <v>24</v>
       </c>
-      <c r="M6">
+      <c r="M6" t="n">
         <v>19</v>
       </c>
-      <c r="N6">
-        <v>11</v>
-      </c>
-      <c r="O6">
+      <c r="N6" t="n">
+        <v>11</v>
+      </c>
+      <c r="O6" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="1">
+      <c r="A7" s="1" t="n">
         <v>43507</v>
       </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="n">
         <v>51</v>
       </c>
-      <c r="D7">
-        <v>49</v>
-      </c>
-      <c r="E7">
+      <c r="D7" t="n">
+        <v>49</v>
+      </c>
+      <c r="E7" t="n">
         <v>32</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="n">
         <v>37</v>
       </c>
-      <c r="G7">
-        <v>11</v>
-      </c>
-      <c r="H7">
-        <v>4</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
+      <c r="G7" t="n">
+        <v>11</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
         <v>78</v>
       </c>
-      <c r="K7">
+      <c r="K7" t="n">
         <v>25</v>
       </c>
-      <c r="L7">
+      <c r="L7" t="n">
         <v>24</v>
       </c>
-      <c r="M7">
+      <c r="M7" t="n">
         <v>19</v>
       </c>
-      <c r="N7">
-        <v>11</v>
-      </c>
-      <c r="O7">
+      <c r="N7" t="n">
+        <v>11</v>
+      </c>
+      <c r="O7" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="1">
+      <c r="A8" s="1" t="n">
         <v>43507</v>
       </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8">
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
         <v>51</v>
       </c>
-      <c r="D8">
-        <v>49</v>
-      </c>
-      <c r="E8">
+      <c r="D8" t="n">
+        <v>49</v>
+      </c>
+      <c r="E8" t="n">
         <v>32</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="n">
         <v>37</v>
       </c>
-      <c r="G8">
-        <v>11</v>
-      </c>
-      <c r="H8">
-        <v>4</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
+      <c r="G8" t="n">
+        <v>11</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
         <v>78</v>
       </c>
-      <c r="K8">
+      <c r="K8" t="n">
         <v>25</v>
       </c>
-      <c r="L8">
+      <c r="L8" t="n">
         <v>24</v>
       </c>
-      <c r="M8">
+      <c r="M8" t="n">
         <v>19</v>
       </c>
-      <c r="N8">
-        <v>11</v>
-      </c>
-      <c r="O8">
+      <c r="N8" t="n">
+        <v>11</v>
+      </c>
+      <c r="O8" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="1">
+      <c r="A9" s="1" t="n">
         <v>43507</v>
       </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9">
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" t="n">
         <v>51</v>
       </c>
-      <c r="D9">
-        <v>49</v>
-      </c>
-      <c r="E9">
+      <c r="D9" t="n">
+        <v>49</v>
+      </c>
+      <c r="E9" t="n">
         <v>32</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="n">
         <v>37</v>
       </c>
-      <c r="G9">
-        <v>11</v>
-      </c>
-      <c r="H9">
-        <v>4</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
+      <c r="G9" t="n">
+        <v>11</v>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
         <v>78</v>
       </c>
-      <c r="K9">
+      <c r="K9" t="n">
         <v>25</v>
       </c>
-      <c r="L9">
+      <c r="L9" t="n">
         <v>24</v>
       </c>
-      <c r="M9">
+      <c r="M9" t="n">
         <v>19</v>
       </c>
-      <c r="N9">
-        <v>11</v>
-      </c>
-      <c r="O9">
+      <c r="N9" t="n">
+        <v>11</v>
+      </c>
+      <c r="O9" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="1">
+      <c r="A10" s="1" t="n">
         <v>43508</v>
       </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10">
+      <c r="B10" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" t="n">
         <v>51</v>
       </c>
-      <c r="D10">
-        <v>49</v>
-      </c>
-      <c r="E10">
+      <c r="D10" t="n">
+        <v>49</v>
+      </c>
+      <c r="E10" t="n">
         <v>32</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="n">
         <v>37</v>
       </c>
-      <c r="G10">
-        <v>11</v>
-      </c>
-      <c r="H10">
-        <v>4</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
+      <c r="G10" t="n">
+        <v>11</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
         <v>78</v>
       </c>
-      <c r="K10">
+      <c r="K10" t="n">
         <v>25</v>
       </c>
-      <c r="L10">
+      <c r="L10" t="n">
         <v>24</v>
       </c>
-      <c r="M10">
+      <c r="M10" t="n">
         <v>19</v>
       </c>
-      <c r="N10">
-        <v>11</v>
-      </c>
-      <c r="O10">
+      <c r="N10" t="n">
+        <v>11</v>
+      </c>
+      <c r="O10" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="1">
+      <c r="A11" s="1" t="n">
         <v>43509</v>
       </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
+      <c r="B11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" t="n">
         <v>51</v>
       </c>
-      <c r="D11">
-        <v>49</v>
-      </c>
-      <c r="E11">
+      <c r="D11" t="n">
+        <v>49</v>
+      </c>
+      <c r="E11" t="n">
         <v>32</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="n">
         <v>37</v>
       </c>
-      <c r="G11">
-        <v>11</v>
-      </c>
-      <c r="H11">
-        <v>4</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
+      <c r="G11" t="n">
+        <v>11</v>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
         <v>78</v>
       </c>
-      <c r="K11">
+      <c r="K11" t="n">
         <v>25</v>
       </c>
-      <c r="L11">
+      <c r="L11" t="n">
         <v>24</v>
       </c>
-      <c r="M11">
+      <c r="M11" t="n">
         <v>19</v>
       </c>
-      <c r="N11">
-        <v>11</v>
-      </c>
-      <c r="O11">
+      <c r="N11" t="n">
+        <v>11</v>
+      </c>
+      <c r="O11" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="1">
+      <c r="A12" s="1" t="n">
         <v>43510</v>
       </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12">
+      <c r="B12" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" t="n">
         <v>51</v>
       </c>
-      <c r="D12">
-        <v>49</v>
-      </c>
-      <c r="E12">
+      <c r="D12" t="n">
+        <v>49</v>
+      </c>
+      <c r="E12" t="n">
         <v>32</v>
       </c>
-      <c r="F12">
+      <c r="F12" t="n">
         <v>36</v>
       </c>
-      <c r="G12">
-        <v>11</v>
-      </c>
-      <c r="H12">
-        <v>4</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12">
+      <c r="G12" t="n">
+        <v>11</v>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
         <v>78</v>
       </c>
-      <c r="K12">
+      <c r="K12" t="n">
         <v>25</v>
       </c>
-      <c r="L12">
+      <c r="L12" t="n">
         <v>24</v>
       </c>
-      <c r="M12">
+      <c r="M12" t="n">
         <v>19</v>
       </c>
-      <c r="N12">
-        <v>11</v>
-      </c>
-      <c r="O12">
+      <c r="N12" t="n">
+        <v>11</v>
+      </c>
+      <c r="O12" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="1">
+      <c r="A13" s="1" t="n">
         <v>43512</v>
       </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13">
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
         <v>51</v>
       </c>
-      <c r="D13">
-        <v>49</v>
-      </c>
-      <c r="E13">
+      <c r="D13" t="n">
+        <v>49</v>
+      </c>
+      <c r="E13" t="n">
         <v>32</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="n">
         <v>36</v>
       </c>
-      <c r="G13">
-        <v>11</v>
-      </c>
-      <c r="H13">
-        <v>4</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13">
+      <c r="G13" t="n">
+        <v>11</v>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
         <v>78</v>
       </c>
-      <c r="K13">
+      <c r="K13" t="n">
         <v>25</v>
       </c>
-      <c r="L13">
+      <c r="L13" t="n">
         <v>24</v>
       </c>
-      <c r="M13">
+      <c r="M13" t="n">
         <v>19</v>
       </c>
-      <c r="N13">
-        <v>11</v>
-      </c>
-      <c r="O13">
+      <c r="N13" t="n">
+        <v>11</v>
+      </c>
+      <c r="O13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2</v>
+      </c>
+      <c r="C14" t="n">
+        <v>51</v>
+      </c>
+      <c r="D14" t="n">
+        <v>49</v>
+      </c>
+      <c r="E14" t="n">
+        <v>32</v>
+      </c>
+      <c r="F14" t="n">
+        <v>36</v>
+      </c>
+      <c r="G14" t="n">
+        <v>11</v>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>78</v>
+      </c>
+      <c r="K14" t="n">
+        <v>25</v>
+      </c>
+      <c r="L14" t="n">
+        <v>24</v>
+      </c>
+      <c r="M14" t="n">
+        <v>19</v>
+      </c>
+      <c r="N14" t="n">
+        <v>11</v>
+      </c>
+      <c r="O14" t="n">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/excels/lite/lite-Ages-Gender.xlsx
+++ b/excels/lite/lite-Ages-Gender.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="14480" windowWidth="31280" xWindow="240" yWindow="460"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="31280" windowHeight="14480"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" concurrentCalc="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -59,28 +64,40 @@
   </si>
   <si>
     <t>M.65+</t>
-  </si>
-  <si>
-    <t>19-02-2019</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -95,17 +112,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+  <cellStyleXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -393,20 +419,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B1" sqref="B1:O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" width="10"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -457,617 +479,623 @@
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="1">
         <v>43499</v>
       </c>
-      <c r="B2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" t="n">
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
         <v>42</v>
       </c>
-      <c r="D2" t="n">
-        <v>49</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="D2">
+        <v>49</v>
+      </c>
+      <c r="E2">
         <v>30</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>34</v>
       </c>
-      <c r="G2" t="n">
-        <v>11</v>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="G2">
+        <v>11</v>
+      </c>
+      <c r="H2">
+        <v>4</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
         <v>75</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>20</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2">
         <v>20</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2">
         <v>17</v>
       </c>
-      <c r="N2" t="n">
-        <v>11</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="N2">
+        <v>11</v>
+      </c>
+      <c r="O2">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="1">
         <v>43501</v>
       </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
         <v>45</v>
       </c>
-      <c r="D3" t="n">
-        <v>49</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="D3">
+        <v>49</v>
+      </c>
+      <c r="E3">
         <v>31</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>37</v>
       </c>
-      <c r="G3" t="n">
-        <v>11</v>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
+      <c r="G3">
+        <v>11</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
         <v>76</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>20</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3">
         <v>20</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3">
         <v>18</v>
       </c>
-      <c r="N3" t="n">
-        <v>11</v>
-      </c>
-      <c r="O3" t="n">
+      <c r="N3">
+        <v>11</v>
+      </c>
+      <c r="O3">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="1">
         <v>43503</v>
       </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
         <v>51</v>
       </c>
-      <c r="D4" t="n">
-        <v>49</v>
-      </c>
-      <c r="E4" t="n">
+      <c r="D4">
+        <v>49</v>
+      </c>
+      <c r="E4">
         <v>31</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>35</v>
       </c>
-      <c r="G4" t="n">
-        <v>11</v>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="G4">
+        <v>11</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
         <v>77</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>22</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4">
         <v>21</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4">
         <v>19</v>
       </c>
-      <c r="N4" t="n">
-        <v>11</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="N4">
+        <v>11</v>
+      </c>
+      <c r="O4">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="1">
         <v>43504</v>
       </c>
-      <c r="B5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C5" t="n">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
         <v>51</v>
       </c>
-      <c r="D5" t="n">
-        <v>49</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="D5">
+        <v>49</v>
+      </c>
+      <c r="E5">
         <v>32</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>37</v>
       </c>
-      <c r="G5" t="n">
-        <v>11</v>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
+      <c r="G5">
+        <v>11</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
         <v>78</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>25</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5">
         <v>22</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M5">
         <v>19</v>
       </c>
-      <c r="N5" t="n">
-        <v>11</v>
-      </c>
-      <c r="O5" t="n">
+      <c r="N5">
+        <v>11</v>
+      </c>
+      <c r="O5">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="1">
         <v>43505</v>
       </c>
-      <c r="B6" t="n">
-        <v>2</v>
-      </c>
-      <c r="C6" t="n">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
         <v>51</v>
       </c>
-      <c r="D6" t="n">
-        <v>49</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="D6">
+        <v>49</v>
+      </c>
+      <c r="E6">
         <v>32</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>37</v>
       </c>
-      <c r="G6" t="n">
-        <v>11</v>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
+      <c r="G6">
+        <v>11</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
         <v>78</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6">
         <v>25</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6">
         <v>24</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M6">
         <v>19</v>
       </c>
-      <c r="N6" t="n">
-        <v>11</v>
-      </c>
-      <c r="O6" t="n">
+      <c r="N6">
+        <v>11</v>
+      </c>
+      <c r="O6">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="1">
         <v>43507</v>
       </c>
-      <c r="B7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" t="n">
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
         <v>51</v>
       </c>
-      <c r="D7" t="n">
-        <v>49</v>
-      </c>
-      <c r="E7" t="n">
+      <c r="D7">
+        <v>49</v>
+      </c>
+      <c r="E7">
         <v>32</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>37</v>
       </c>
-      <c r="G7" t="n">
-        <v>11</v>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
+      <c r="G7">
+        <v>11</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
         <v>78</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7">
         <v>25</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L7">
         <v>24</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M7">
         <v>19</v>
       </c>
-      <c r="N7" t="n">
-        <v>11</v>
-      </c>
-      <c r="O7" t="n">
+      <c r="N7">
+        <v>11</v>
+      </c>
+      <c r="O7">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="1">
         <v>43507</v>
       </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
         <v>51</v>
       </c>
-      <c r="D8" t="n">
-        <v>49</v>
-      </c>
-      <c r="E8" t="n">
+      <c r="D8">
+        <v>49</v>
+      </c>
+      <c r="E8">
         <v>32</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>37</v>
       </c>
-      <c r="G8" t="n">
-        <v>11</v>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
+      <c r="G8">
+        <v>11</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
         <v>78</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8">
         <v>25</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L8">
         <v>24</v>
       </c>
-      <c r="M8" t="n">
+      <c r="M8">
         <v>19</v>
       </c>
-      <c r="N8" t="n">
-        <v>11</v>
-      </c>
-      <c r="O8" t="n">
+      <c r="N8">
+        <v>11</v>
+      </c>
+      <c r="O8">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="1" t="n">
+      <c r="A9" s="1">
         <v>43507</v>
       </c>
-      <c r="B9" t="n">
-        <v>2</v>
-      </c>
-      <c r="C9" t="n">
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
         <v>51</v>
       </c>
-      <c r="D9" t="n">
-        <v>49</v>
-      </c>
-      <c r="E9" t="n">
+      <c r="D9">
+        <v>49</v>
+      </c>
+      <c r="E9">
         <v>32</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>37</v>
       </c>
-      <c r="G9" t="n">
-        <v>11</v>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
+      <c r="G9">
+        <v>11</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
         <v>78</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9">
         <v>25</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L9">
         <v>24</v>
       </c>
-      <c r="M9" t="n">
+      <c r="M9">
         <v>19</v>
       </c>
-      <c r="N9" t="n">
-        <v>11</v>
-      </c>
-      <c r="O9" t="n">
+      <c r="N9">
+        <v>11</v>
+      </c>
+      <c r="O9">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="1" t="n">
+      <c r="A10" s="1">
         <v>43508</v>
       </c>
-      <c r="B10" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" t="n">
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
         <v>51</v>
       </c>
-      <c r="D10" t="n">
-        <v>49</v>
-      </c>
-      <c r="E10" t="n">
+      <c r="D10">
+        <v>49</v>
+      </c>
+      <c r="E10">
         <v>32</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>37</v>
       </c>
-      <c r="G10" t="n">
-        <v>11</v>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
+      <c r="G10">
+        <v>11</v>
+      </c>
+      <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
         <v>78</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10">
         <v>25</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L10">
         <v>24</v>
       </c>
-      <c r="M10" t="n">
+      <c r="M10">
         <v>19</v>
       </c>
-      <c r="N10" t="n">
-        <v>11</v>
-      </c>
-      <c r="O10" t="n">
+      <c r="N10">
+        <v>11</v>
+      </c>
+      <c r="O10">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="1" t="n">
+      <c r="A11" s="1">
         <v>43509</v>
       </c>
-      <c r="B11" t="n">
-        <v>2</v>
-      </c>
-      <c r="C11" t="n">
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
         <v>51</v>
       </c>
-      <c r="D11" t="n">
-        <v>49</v>
-      </c>
-      <c r="E11" t="n">
+      <c r="D11">
+        <v>49</v>
+      </c>
+      <c r="E11">
         <v>32</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>37</v>
       </c>
-      <c r="G11" t="n">
-        <v>11</v>
-      </c>
-      <c r="H11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="n">
+      <c r="G11">
+        <v>11</v>
+      </c>
+      <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
         <v>78</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11">
         <v>25</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L11">
         <v>24</v>
       </c>
-      <c r="M11" t="n">
+      <c r="M11">
         <v>19</v>
       </c>
-      <c r="N11" t="n">
-        <v>11</v>
-      </c>
-      <c r="O11" t="n">
+      <c r="N11">
+        <v>11</v>
+      </c>
+      <c r="O11">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="1" t="n">
+      <c r="A12" s="1">
         <v>43510</v>
       </c>
-      <c r="B12" t="n">
-        <v>2</v>
-      </c>
-      <c r="C12" t="n">
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
         <v>51</v>
       </c>
-      <c r="D12" t="n">
-        <v>49</v>
-      </c>
-      <c r="E12" t="n">
+      <c r="D12">
+        <v>49</v>
+      </c>
+      <c r="E12">
         <v>32</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>36</v>
       </c>
-      <c r="G12" t="n">
-        <v>11</v>
-      </c>
-      <c r="H12" t="n">
-        <v>4</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="n">
+      <c r="G12">
+        <v>11</v>
+      </c>
+      <c r="H12">
+        <v>4</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
         <v>78</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K12">
         <v>25</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L12">
         <v>24</v>
       </c>
-      <c r="M12" t="n">
+      <c r="M12">
         <v>19</v>
       </c>
-      <c r="N12" t="n">
-        <v>11</v>
-      </c>
-      <c r="O12" t="n">
+      <c r="N12">
+        <v>11</v>
+      </c>
+      <c r="O12">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="1" t="n">
+      <c r="A13" s="1">
         <v>43512</v>
       </c>
-      <c r="B13" t="n">
-        <v>2</v>
-      </c>
-      <c r="C13" t="n">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
         <v>51</v>
       </c>
-      <c r="D13" t="n">
-        <v>49</v>
-      </c>
-      <c r="E13" t="n">
+      <c r="D13">
+        <v>49</v>
+      </c>
+      <c r="E13">
         <v>32</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>36</v>
       </c>
-      <c r="G13" t="n">
-        <v>11</v>
-      </c>
-      <c r="H13" t="n">
-        <v>4</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="n">
+      <c r="G13">
+        <v>11</v>
+      </c>
+      <c r="H13">
+        <v>4</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
         <v>78</v>
       </c>
-      <c r="K13" t="n">
+      <c r="K13">
         <v>25</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L13">
         <v>24</v>
       </c>
-      <c r="M13" t="n">
+      <c r="M13">
         <v>19</v>
       </c>
-      <c r="N13" t="n">
-        <v>11</v>
-      </c>
-      <c r="O13" t="n">
+      <c r="N13">
+        <v>11</v>
+      </c>
+      <c r="O13">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" t="n">
-        <v>2</v>
-      </c>
-      <c r="C14" t="n">
+      <c r="A14" s="1">
+        <v>43515</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
         <v>51</v>
       </c>
-      <c r="D14" t="n">
-        <v>49</v>
-      </c>
-      <c r="E14" t="n">
+      <c r="D14">
+        <v>49</v>
+      </c>
+      <c r="E14">
         <v>32</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>36</v>
       </c>
-      <c r="G14" t="n">
-        <v>11</v>
-      </c>
-      <c r="H14" t="n">
-        <v>4</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" t="n">
+      <c r="G14">
+        <v>11</v>
+      </c>
+      <c r="H14">
+        <v>4</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
         <v>78</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K14">
         <v>25</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L14">
         <v>24</v>
       </c>
-      <c r="M14" t="n">
+      <c r="M14">
         <v>19</v>
       </c>
-      <c r="N14" t="n">
-        <v>11</v>
-      </c>
-      <c r="O14" t="n">
+      <c r="N14">
+        <v>11</v>
+      </c>
+      <c r="O14">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/excels/lite/lite-Ages-Gender.xlsx
+++ b/excels/lite/lite-Ages-Gender.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="31280" windowHeight="14480"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="14480" windowWidth="31280" xWindow="240" yWindow="460"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="140001" concurrentCalc="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
   <si>
     <t>Date</t>
   </si>
@@ -64,40 +59,44 @@
   </si>
   <si>
     <t>M.65+</t>
+  </si>
+  <si>
+    <t>23-02-2019</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="11"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -112,26 +111,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  <cellStyleXfs count="3">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="3">
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="8" hidden="1" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="2"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -419,16 +413,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -479,623 +477,665 @@
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="1">
+      <c r="A2" s="1" t="n">
         <v>43499</v>
       </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2">
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="n">
         <v>42</v>
       </c>
-      <c r="D2">
-        <v>49</v>
-      </c>
-      <c r="E2">
+      <c r="D2" t="n">
+        <v>49</v>
+      </c>
+      <c r="E2" t="n">
         <v>30</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>34</v>
       </c>
-      <c r="G2">
-        <v>11</v>
-      </c>
-      <c r="H2">
-        <v>4</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
+      <c r="G2" t="n">
+        <v>11</v>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
         <v>75</v>
       </c>
-      <c r="K2">
+      <c r="K2" t="n">
         <v>20</v>
       </c>
-      <c r="L2">
+      <c r="L2" t="n">
         <v>20</v>
       </c>
-      <c r="M2">
+      <c r="M2" t="n">
         <v>17</v>
       </c>
-      <c r="N2">
-        <v>11</v>
-      </c>
-      <c r="O2">
+      <c r="N2" t="n">
+        <v>11</v>
+      </c>
+      <c r="O2" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="1">
+      <c r="A3" s="1" t="n">
         <v>43501</v>
       </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
         <v>45</v>
       </c>
-      <c r="D3">
-        <v>49</v>
-      </c>
-      <c r="E3">
+      <c r="D3" t="n">
+        <v>49</v>
+      </c>
+      <c r="E3" t="n">
         <v>31</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>37</v>
       </c>
-      <c r="G3">
-        <v>11</v>
-      </c>
-      <c r="H3">
-        <v>4</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
+      <c r="G3" t="n">
+        <v>11</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
         <v>76</v>
       </c>
-      <c r="K3">
+      <c r="K3" t="n">
         <v>20</v>
       </c>
-      <c r="L3">
+      <c r="L3" t="n">
         <v>20</v>
       </c>
-      <c r="M3">
+      <c r="M3" t="n">
         <v>18</v>
       </c>
-      <c r="N3">
-        <v>11</v>
-      </c>
-      <c r="O3">
+      <c r="N3" t="n">
+        <v>11</v>
+      </c>
+      <c r="O3" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="1">
+      <c r="A4" s="1" t="n">
         <v>43503</v>
       </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
         <v>51</v>
       </c>
-      <c r="D4">
-        <v>49</v>
-      </c>
-      <c r="E4">
+      <c r="D4" t="n">
+        <v>49</v>
+      </c>
+      <c r="E4" t="n">
         <v>31</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>35</v>
       </c>
-      <c r="G4">
-        <v>11</v>
-      </c>
-      <c r="H4">
-        <v>4</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
+      <c r="G4" t="n">
+        <v>11</v>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
         <v>77</v>
       </c>
-      <c r="K4">
+      <c r="K4" t="n">
         <v>22</v>
       </c>
-      <c r="L4">
+      <c r="L4" t="n">
         <v>21</v>
       </c>
-      <c r="M4">
+      <c r="M4" t="n">
         <v>19</v>
       </c>
-      <c r="N4">
-        <v>11</v>
-      </c>
-      <c r="O4">
+      <c r="N4" t="n">
+        <v>11</v>
+      </c>
+      <c r="O4" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="1">
+      <c r="A5" s="1" t="n">
         <v>43504</v>
       </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="n">
         <v>51</v>
       </c>
-      <c r="D5">
-        <v>49</v>
-      </c>
-      <c r="E5">
+      <c r="D5" t="n">
+        <v>49</v>
+      </c>
+      <c r="E5" t="n">
         <v>32</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>37</v>
       </c>
-      <c r="G5">
-        <v>11</v>
-      </c>
-      <c r="H5">
-        <v>4</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
+      <c r="G5" t="n">
+        <v>11</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
         <v>78</v>
       </c>
-      <c r="K5">
+      <c r="K5" t="n">
         <v>25</v>
       </c>
-      <c r="L5">
+      <c r="L5" t="n">
         <v>22</v>
       </c>
-      <c r="M5">
+      <c r="M5" t="n">
         <v>19</v>
       </c>
-      <c r="N5">
-        <v>11</v>
-      </c>
-      <c r="O5">
+      <c r="N5" t="n">
+        <v>11</v>
+      </c>
+      <c r="O5" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="1">
+      <c r="A6" s="1" t="n">
         <v>43505</v>
       </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="n">
         <v>51</v>
       </c>
-      <c r="D6">
-        <v>49</v>
-      </c>
-      <c r="E6">
+      <c r="D6" t="n">
+        <v>49</v>
+      </c>
+      <c r="E6" t="n">
         <v>32</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>37</v>
       </c>
-      <c r="G6">
-        <v>11</v>
-      </c>
-      <c r="H6">
-        <v>4</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
+      <c r="G6" t="n">
+        <v>11</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
         <v>78</v>
       </c>
-      <c r="K6">
+      <c r="K6" t="n">
         <v>25</v>
       </c>
-      <c r="L6">
+      <c r="L6" t="n">
         <v>24</v>
       </c>
-      <c r="M6">
+      <c r="M6" t="n">
         <v>19</v>
       </c>
-      <c r="N6">
-        <v>11</v>
-      </c>
-      <c r="O6">
+      <c r="N6" t="n">
+        <v>11</v>
+      </c>
+      <c r="O6" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="1">
+      <c r="A7" s="1" t="n">
         <v>43507</v>
       </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="n">
         <v>51</v>
       </c>
-      <c r="D7">
-        <v>49</v>
-      </c>
-      <c r="E7">
+      <c r="D7" t="n">
+        <v>49</v>
+      </c>
+      <c r="E7" t="n">
         <v>32</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="n">
         <v>37</v>
       </c>
-      <c r="G7">
-        <v>11</v>
-      </c>
-      <c r="H7">
-        <v>4</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
+      <c r="G7" t="n">
+        <v>11</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
         <v>78</v>
       </c>
-      <c r="K7">
+      <c r="K7" t="n">
         <v>25</v>
       </c>
-      <c r="L7">
+      <c r="L7" t="n">
         <v>24</v>
       </c>
-      <c r="M7">
+      <c r="M7" t="n">
         <v>19</v>
       </c>
-      <c r="N7">
-        <v>11</v>
-      </c>
-      <c r="O7">
+      <c r="N7" t="n">
+        <v>11</v>
+      </c>
+      <c r="O7" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="1">
+      <c r="A8" s="1" t="n">
         <v>43507</v>
       </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8">
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
         <v>51</v>
       </c>
-      <c r="D8">
-        <v>49</v>
-      </c>
-      <c r="E8">
+      <c r="D8" t="n">
+        <v>49</v>
+      </c>
+      <c r="E8" t="n">
         <v>32</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="n">
         <v>37</v>
       </c>
-      <c r="G8">
-        <v>11</v>
-      </c>
-      <c r="H8">
-        <v>4</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
+      <c r="G8" t="n">
+        <v>11</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
         <v>78</v>
       </c>
-      <c r="K8">
+      <c r="K8" t="n">
         <v>25</v>
       </c>
-      <c r="L8">
+      <c r="L8" t="n">
         <v>24</v>
       </c>
-      <c r="M8">
+      <c r="M8" t="n">
         <v>19</v>
       </c>
-      <c r="N8">
-        <v>11</v>
-      </c>
-      <c r="O8">
+      <c r="N8" t="n">
+        <v>11</v>
+      </c>
+      <c r="O8" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="1">
+      <c r="A9" s="1" t="n">
         <v>43507</v>
       </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9">
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" t="n">
         <v>51</v>
       </c>
-      <c r="D9">
-        <v>49</v>
-      </c>
-      <c r="E9">
+      <c r="D9" t="n">
+        <v>49</v>
+      </c>
+      <c r="E9" t="n">
         <v>32</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="n">
         <v>37</v>
       </c>
-      <c r="G9">
-        <v>11</v>
-      </c>
-      <c r="H9">
-        <v>4</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
+      <c r="G9" t="n">
+        <v>11</v>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
         <v>78</v>
       </c>
-      <c r="K9">
+      <c r="K9" t="n">
         <v>25</v>
       </c>
-      <c r="L9">
+      <c r="L9" t="n">
         <v>24</v>
       </c>
-      <c r="M9">
+      <c r="M9" t="n">
         <v>19</v>
       </c>
-      <c r="N9">
-        <v>11</v>
-      </c>
-      <c r="O9">
+      <c r="N9" t="n">
+        <v>11</v>
+      </c>
+      <c r="O9" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="1">
+      <c r="A10" s="1" t="n">
         <v>43508</v>
       </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10">
+      <c r="B10" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" t="n">
         <v>51</v>
       </c>
-      <c r="D10">
-        <v>49</v>
-      </c>
-      <c r="E10">
+      <c r="D10" t="n">
+        <v>49</v>
+      </c>
+      <c r="E10" t="n">
         <v>32</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="n">
         <v>37</v>
       </c>
-      <c r="G10">
-        <v>11</v>
-      </c>
-      <c r="H10">
-        <v>4</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
+      <c r="G10" t="n">
+        <v>11</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
         <v>78</v>
       </c>
-      <c r="K10">
+      <c r="K10" t="n">
         <v>25</v>
       </c>
-      <c r="L10">
+      <c r="L10" t="n">
         <v>24</v>
       </c>
-      <c r="M10">
+      <c r="M10" t="n">
         <v>19</v>
       </c>
-      <c r="N10">
-        <v>11</v>
-      </c>
-      <c r="O10">
+      <c r="N10" t="n">
+        <v>11</v>
+      </c>
+      <c r="O10" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="1">
+      <c r="A11" s="1" t="n">
         <v>43509</v>
       </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
+      <c r="B11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" t="n">
         <v>51</v>
       </c>
-      <c r="D11">
-        <v>49</v>
-      </c>
-      <c r="E11">
+      <c r="D11" t="n">
+        <v>49</v>
+      </c>
+      <c r="E11" t="n">
         <v>32</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="n">
         <v>37</v>
       </c>
-      <c r="G11">
-        <v>11</v>
-      </c>
-      <c r="H11">
-        <v>4</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
+      <c r="G11" t="n">
+        <v>11</v>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
         <v>78</v>
       </c>
-      <c r="K11">
+      <c r="K11" t="n">
         <v>25</v>
       </c>
-      <c r="L11">
+      <c r="L11" t="n">
         <v>24</v>
       </c>
-      <c r="M11">
+      <c r="M11" t="n">
         <v>19</v>
       </c>
-      <c r="N11">
-        <v>11</v>
-      </c>
-      <c r="O11">
+      <c r="N11" t="n">
+        <v>11</v>
+      </c>
+      <c r="O11" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="1">
+      <c r="A12" s="1" t="n">
         <v>43510</v>
       </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12">
+      <c r="B12" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" t="n">
         <v>51</v>
       </c>
-      <c r="D12">
-        <v>49</v>
-      </c>
-      <c r="E12">
+      <c r="D12" t="n">
+        <v>49</v>
+      </c>
+      <c r="E12" t="n">
         <v>32</v>
       </c>
-      <c r="F12">
+      <c r="F12" t="n">
         <v>36</v>
       </c>
-      <c r="G12">
-        <v>11</v>
-      </c>
-      <c r="H12">
-        <v>4</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12">
+      <c r="G12" t="n">
+        <v>11</v>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
         <v>78</v>
       </c>
-      <c r="K12">
+      <c r="K12" t="n">
         <v>25</v>
       </c>
-      <c r="L12">
+      <c r="L12" t="n">
         <v>24</v>
       </c>
-      <c r="M12">
+      <c r="M12" t="n">
         <v>19</v>
       </c>
-      <c r="N12">
-        <v>11</v>
-      </c>
-      <c r="O12">
+      <c r="N12" t="n">
+        <v>11</v>
+      </c>
+      <c r="O12" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="1">
+      <c r="A13" s="1" t="n">
         <v>43512</v>
       </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13">
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
         <v>51</v>
       </c>
-      <c r="D13">
-        <v>49</v>
-      </c>
-      <c r="E13">
+      <c r="D13" t="n">
+        <v>49</v>
+      </c>
+      <c r="E13" t="n">
         <v>32</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="n">
         <v>36</v>
       </c>
-      <c r="G13">
-        <v>11</v>
-      </c>
-      <c r="H13">
-        <v>4</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13">
+      <c r="G13" t="n">
+        <v>11</v>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
         <v>78</v>
       </c>
-      <c r="K13">
+      <c r="K13" t="n">
         <v>25</v>
       </c>
-      <c r="L13">
+      <c r="L13" t="n">
         <v>24</v>
       </c>
-      <c r="M13">
+      <c r="M13" t="n">
         <v>19</v>
       </c>
-      <c r="N13">
-        <v>11</v>
-      </c>
-      <c r="O13">
+      <c r="N13" t="n">
+        <v>11</v>
+      </c>
+      <c r="O13" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="1">
+      <c r="A14" s="1" t="n">
         <v>43515</v>
       </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14">
+      <c r="B14" t="n">
+        <v>2</v>
+      </c>
+      <c r="C14" t="n">
         <v>51</v>
       </c>
-      <c r="D14">
-        <v>49</v>
-      </c>
-      <c r="E14">
+      <c r="D14" t="n">
+        <v>49</v>
+      </c>
+      <c r="E14" t="n">
         <v>32</v>
       </c>
-      <c r="F14">
+      <c r="F14" t="n">
         <v>36</v>
       </c>
-      <c r="G14">
-        <v>11</v>
-      </c>
-      <c r="H14">
-        <v>4</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14">
+      <c r="G14" t="n">
+        <v>11</v>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
         <v>78</v>
       </c>
-      <c r="K14">
+      <c r="K14" t="n">
         <v>25</v>
       </c>
-      <c r="L14">
+      <c r="L14" t="n">
         <v>24</v>
       </c>
-      <c r="M14">
+      <c r="M14" t="n">
         <v>19</v>
       </c>
-      <c r="N14">
-        <v>11</v>
-      </c>
-      <c r="O14">
+      <c r="N14" t="n">
+        <v>11</v>
+      </c>
+      <c r="O14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" t="n">
+        <v>51</v>
+      </c>
+      <c r="D15" t="n">
+        <v>49</v>
+      </c>
+      <c r="E15" t="n">
+        <v>32</v>
+      </c>
+      <c r="F15" t="n">
+        <v>36</v>
+      </c>
+      <c r="G15" t="n">
+        <v>11</v>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>77</v>
+      </c>
+      <c r="K15" t="n">
+        <v>25</v>
+      </c>
+      <c r="L15" t="n">
+        <v>24</v>
+      </c>
+      <c r="M15" t="n">
+        <v>19</v>
+      </c>
+      <c r="N15" t="n">
+        <v>11</v>
+      </c>
+      <c r="O15" t="n">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967292" orientation="portrait" paperSize="9" verticalDpi="4294967292"/>
 </worksheet>
 </file>
--- a/excels/lite/lite-Ages-Gender.xlsx
+++ b/excels/lite/lite-Ages-Gender.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
   <si>
     <t>Date</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>23-02-2019</t>
+  </si>
+  <si>
+    <t>24-02-2019</t>
   </si>
 </sst>
 </file>
@@ -418,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:O1"/>
@@ -1134,6 +1137,53 @@
         <v>4</v>
       </c>
     </row>
+    <row r="16" spans="1:15">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" t="n">
+        <v>51</v>
+      </c>
+      <c r="D16" t="n">
+        <v>49</v>
+      </c>
+      <c r="E16" t="n">
+        <v>32</v>
+      </c>
+      <c r="F16" t="n">
+        <v>36</v>
+      </c>
+      <c r="G16" t="n">
+        <v>11</v>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>77</v>
+      </c>
+      <c r="K16" t="n">
+        <v>25</v>
+      </c>
+      <c r="L16" t="n">
+        <v>24</v>
+      </c>
+      <c r="M16" t="n">
+        <v>19</v>
+      </c>
+      <c r="N16" t="n">
+        <v>11</v>
+      </c>
+      <c r="O16" t="n">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup horizontalDpi="4294967292" orientation="portrait" paperSize="9" verticalDpi="4294967292"/>

--- a/excels/lite/lite-Ages-Gender.xlsx
+++ b/excels/lite/lite-Ages-Gender.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
   <si>
     <t>Date</t>
   </si>
@@ -65,6 +65,12 @@
   </si>
   <si>
     <t>24-02-2019</t>
+  </si>
+  <si>
+    <t>25-02-2019</t>
+  </si>
+  <si>
+    <t>03-03-2019</t>
   </si>
 </sst>
 </file>
@@ -421,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:O1"/>
@@ -1184,6 +1190,100 @@
         <v>4</v>
       </c>
     </row>
+    <row r="17" spans="1:15">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" t="n">
+        <v>51</v>
+      </c>
+      <c r="D17" t="n">
+        <v>49</v>
+      </c>
+      <c r="E17" t="n">
+        <v>32</v>
+      </c>
+      <c r="F17" t="n">
+        <v>36</v>
+      </c>
+      <c r="G17" t="n">
+        <v>11</v>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>77</v>
+      </c>
+      <c r="K17" t="n">
+        <v>25</v>
+      </c>
+      <c r="L17" t="n">
+        <v>24</v>
+      </c>
+      <c r="M17" t="n">
+        <v>19</v>
+      </c>
+      <c r="N17" t="n">
+        <v>11</v>
+      </c>
+      <c r="O17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" t="n">
+        <v>51</v>
+      </c>
+      <c r="D18" t="n">
+        <v>49</v>
+      </c>
+      <c r="E18" t="n">
+        <v>32</v>
+      </c>
+      <c r="F18" t="n">
+        <v>36</v>
+      </c>
+      <c r="G18" t="n">
+        <v>11</v>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+      <c r="I18" t="n">
+        <v>77</v>
+      </c>
+      <c r="J18" t="n">
+        <v>25</v>
+      </c>
+      <c r="K18" t="n">
+        <v>24</v>
+      </c>
+      <c r="L18" t="n">
+        <v>19</v>
+      </c>
+      <c r="M18" t="n">
+        <v>11</v>
+      </c>
+      <c r="N18" t="n">
+        <v>4</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup horizontalDpi="4294967292" orientation="portrait" paperSize="9" verticalDpi="4294967292"/>

--- a/excels/lite/lite-Ages-Gender.xlsx
+++ b/excels/lite/lite-Ages-Gender.xlsx
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1252,25 +1252,119 @@
         <v>4</v>
       </c>
       <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
         <v>77</v>
       </c>
-      <c r="J18">
-        <v>25</v>
-      </c>
       <c r="K18">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L18">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M18">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="N18">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="O18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="1">
+        <v>43529</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>51</v>
+      </c>
+      <c r="D19">
+        <v>49</v>
+      </c>
+      <c r="E19">
+        <v>32</v>
+      </c>
+      <c r="F19">
+        <v>36</v>
+      </c>
+      <c r="G19">
+        <v>11</v>
+      </c>
+      <c r="H19">
+        <v>4</v>
+      </c>
+      <c r="I19">
         <v>0</v>
+      </c>
+      <c r="J19">
+        <v>77</v>
+      </c>
+      <c r="K19">
+        <v>25</v>
+      </c>
+      <c r="L19">
+        <v>24</v>
+      </c>
+      <c r="M19">
+        <v>19</v>
+      </c>
+      <c r="N19">
+        <v>11</v>
+      </c>
+      <c r="O19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="1">
+        <v>43529</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>51</v>
+      </c>
+      <c r="D20">
+        <v>49</v>
+      </c>
+      <c r="E20">
+        <v>32</v>
+      </c>
+      <c r="F20">
+        <v>36</v>
+      </c>
+      <c r="G20">
+        <v>11</v>
+      </c>
+      <c r="H20">
+        <v>4</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>77</v>
+      </c>
+      <c r="K20">
+        <v>25</v>
+      </c>
+      <c r="L20">
+        <v>24</v>
+      </c>
+      <c r="M20">
+        <v>19</v>
+      </c>
+      <c r="N20">
+        <v>11</v>
+      </c>
+      <c r="O20">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/excels/lite/lite-Ages-Gender.xlsx
+++ b/excels/lite/lite-Ages-Gender.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
   <si>
     <t>Date</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>12/3/19</t>
+  </si>
+  <si>
+    <t>13/03/2019</t>
   </si>
 </sst>
 </file>
@@ -418,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A22" sqref="A22:O22"/>
@@ -1463,6 +1466,100 @@
         <v>4</v>
       </c>
     </row>
+    <row r="23" spans="1:15">
+      <c r="A23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" t="n">
+        <v>3</v>
+      </c>
+      <c r="C23" t="n">
+        <v>50</v>
+      </c>
+      <c r="D23" t="n">
+        <v>49</v>
+      </c>
+      <c r="E23" t="n">
+        <v>32</v>
+      </c>
+      <c r="F23" t="n">
+        <v>36</v>
+      </c>
+      <c r="G23" t="n">
+        <v>11</v>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>77</v>
+      </c>
+      <c r="K23" t="n">
+        <v>25</v>
+      </c>
+      <c r="L23" t="n">
+        <v>24</v>
+      </c>
+      <c r="M23" t="n">
+        <v>19</v>
+      </c>
+      <c r="N23" t="n">
+        <v>11</v>
+      </c>
+      <c r="O23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" t="n">
+        <v>3</v>
+      </c>
+      <c r="C24" t="n">
+        <v>50</v>
+      </c>
+      <c r="D24" t="n">
+        <v>49</v>
+      </c>
+      <c r="E24" t="n">
+        <v>32</v>
+      </c>
+      <c r="F24" t="n">
+        <v>36</v>
+      </c>
+      <c r="G24" t="n">
+        <v>11</v>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>77</v>
+      </c>
+      <c r="K24" t="n">
+        <v>25</v>
+      </c>
+      <c r="L24" t="n">
+        <v>24</v>
+      </c>
+      <c r="M24" t="n">
+        <v>19</v>
+      </c>
+      <c r="N24" t="n">
+        <v>11</v>
+      </c>
+      <c r="O24" t="n">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup horizontalDpi="4294967292" orientation="portrait" paperSize="9" verticalDpi="4294967292"/>

--- a/excels/lite/lite-Ages-Gender.xlsx
+++ b/excels/lite/lite-Ages-Gender.xlsx
@@ -70,7 +70,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,6 +94,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -112,7 +119,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -120,18 +127,40 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -424,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1235,55 +1264,55 @@
       </c>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="1">
-        <v>43527</v>
-      </c>
-      <c r="B18">
+      <c r="A18" s="2">
+        <v>43525</v>
+      </c>
+      <c r="B18" s="3">
         <v>3</v>
       </c>
-      <c r="C18">
-        <v>51</v>
-      </c>
-      <c r="D18">
-        <v>49</v>
-      </c>
-      <c r="E18">
-        <v>32</v>
-      </c>
-      <c r="F18">
-        <v>36</v>
-      </c>
-      <c r="G18">
-        <v>11</v>
-      </c>
-      <c r="H18">
-        <v>4</v>
-      </c>
-      <c r="I18">
+      <c r="C18" s="3">
+        <v>51</v>
+      </c>
+      <c r="D18" s="3">
+        <v>49</v>
+      </c>
+      <c r="E18" s="3">
+        <v>32</v>
+      </c>
+      <c r="F18" s="3">
+        <v>36</v>
+      </c>
+      <c r="G18" s="3">
+        <v>11</v>
+      </c>
+      <c r="H18" s="3">
+        <v>4</v>
+      </c>
+      <c r="I18" s="3">
         <v>0</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="3">
         <v>77</v>
       </c>
-      <c r="K18">
-        <v>25</v>
-      </c>
-      <c r="L18">
-        <v>24</v>
-      </c>
-      <c r="M18">
-        <v>19</v>
-      </c>
-      <c r="N18">
-        <v>11</v>
-      </c>
-      <c r="O18">
+      <c r="K18" s="3">
+        <v>25</v>
+      </c>
+      <c r="L18" s="3">
+        <v>24</v>
+      </c>
+      <c r="M18" s="3">
+        <v>19</v>
+      </c>
+      <c r="N18" s="3">
+        <v>11</v>
+      </c>
+      <c r="O18" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="1">
-        <v>43529</v>
+        <v>43526</v>
       </c>
       <c r="B19">
         <v>3</v>
@@ -1330,7 +1359,7 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="1">
-        <v>43529</v>
+        <v>43527</v>
       </c>
       <c r="B20">
         <v>3</v>
@@ -1377,7 +1406,7 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="1">
-        <v>43530</v>
+        <v>43528</v>
       </c>
       <c r="B21">
         <v>3</v>
@@ -1424,13 +1453,13 @@
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="1">
-        <v>43535</v>
+        <v>43529</v>
       </c>
       <c r="B22">
         <v>3</v>
       </c>
       <c r="C22">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D22">
         <v>49</v>
@@ -1471,13 +1500,13 @@
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="1">
-        <v>43536</v>
+        <v>43530</v>
       </c>
       <c r="B23">
         <v>3</v>
       </c>
       <c r="C23">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D23">
         <v>49</v>
@@ -1518,19 +1547,19 @@
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="1">
-        <v>43537</v>
+        <v>43531</v>
       </c>
       <c r="B24">
         <v>3</v>
       </c>
       <c r="C24">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D24">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E24">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F24">
         <v>36</v>
@@ -1545,7 +1574,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K24">
         <v>25</v>
@@ -1565,16 +1594,16 @@
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="1">
-        <v>43538</v>
+        <v>43532</v>
       </c>
       <c r="B25">
         <v>3</v>
       </c>
       <c r="C25">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D25">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E25">
         <v>32</v>
@@ -1592,10 +1621,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="K25">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L25">
         <v>24</v>
@@ -1612,16 +1641,16 @@
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="1">
-        <v>43539</v>
+        <v>43533</v>
       </c>
       <c r="B26">
         <v>3</v>
       </c>
       <c r="C26">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D26">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E26">
         <v>32</v>
@@ -1639,10 +1668,10 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="K26">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L26">
         <v>24</v>
@@ -1659,16 +1688,16 @@
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="1">
-        <v>43540</v>
+        <v>43534</v>
       </c>
       <c r="B27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C27">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D27">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E27">
         <v>32</v>
@@ -1686,21 +1715,350 @@
         <v>0</v>
       </c>
       <c r="J27">
+        <v>77</v>
+      </c>
+      <c r="K27">
+        <v>25</v>
+      </c>
+      <c r="L27">
+        <v>24</v>
+      </c>
+      <c r="M27">
+        <v>19</v>
+      </c>
+      <c r="N27">
+        <v>11</v>
+      </c>
+      <c r="O27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="1">
+        <v>43535</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>50</v>
+      </c>
+      <c r="D28">
+        <v>49</v>
+      </c>
+      <c r="E28">
+        <v>32</v>
+      </c>
+      <c r="F28">
+        <v>36</v>
+      </c>
+      <c r="G28">
+        <v>11</v>
+      </c>
+      <c r="H28">
+        <v>4</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>77</v>
+      </c>
+      <c r="K28">
+        <v>25</v>
+      </c>
+      <c r="L28">
+        <v>24</v>
+      </c>
+      <c r="M28">
+        <v>19</v>
+      </c>
+      <c r="N28">
+        <v>11</v>
+      </c>
+      <c r="O28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="1">
+        <v>43536</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>50</v>
+      </c>
+      <c r="D29">
+        <v>49</v>
+      </c>
+      <c r="E29">
+        <v>32</v>
+      </c>
+      <c r="F29">
+        <v>36</v>
+      </c>
+      <c r="G29">
+        <v>11</v>
+      </c>
+      <c r="H29">
+        <v>4</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>77</v>
+      </c>
+      <c r="K29">
+        <v>25</v>
+      </c>
+      <c r="L29">
+        <v>24</v>
+      </c>
+      <c r="M29">
+        <v>19</v>
+      </c>
+      <c r="N29">
+        <v>11</v>
+      </c>
+      <c r="O29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="1">
+        <v>43537</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>52</v>
+      </c>
+      <c r="D30">
+        <v>50</v>
+      </c>
+      <c r="E30">
+        <v>33</v>
+      </c>
+      <c r="F30">
+        <v>36</v>
+      </c>
+      <c r="G30">
+        <v>11</v>
+      </c>
+      <c r="H30">
+        <v>4</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>80</v>
+      </c>
+      <c r="K30">
+        <v>25</v>
+      </c>
+      <c r="L30">
+        <v>24</v>
+      </c>
+      <c r="M30">
+        <v>19</v>
+      </c>
+      <c r="N30">
+        <v>11</v>
+      </c>
+      <c r="O30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="1">
+        <v>43538</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>55</v>
+      </c>
+      <c r="D31">
+        <v>48</v>
+      </c>
+      <c r="E31">
+        <v>32</v>
+      </c>
+      <c r="F31">
+        <v>36</v>
+      </c>
+      <c r="G31">
+        <v>11</v>
+      </c>
+      <c r="H31">
+        <v>4</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>82</v>
+      </c>
+      <c r="K31">
+        <v>27</v>
+      </c>
+      <c r="L31">
+        <v>24</v>
+      </c>
+      <c r="M31">
+        <v>19</v>
+      </c>
+      <c r="N31">
+        <v>11</v>
+      </c>
+      <c r="O31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="1">
+        <v>43539</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <v>55</v>
+      </c>
+      <c r="D32">
+        <v>48</v>
+      </c>
+      <c r="E32">
+        <v>32</v>
+      </c>
+      <c r="F32">
+        <v>36</v>
+      </c>
+      <c r="G32">
+        <v>11</v>
+      </c>
+      <c r="H32">
+        <v>4</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>82</v>
+      </c>
+      <c r="K32">
+        <v>27</v>
+      </c>
+      <c r="L32">
+        <v>24</v>
+      </c>
+      <c r="M32">
+        <v>19</v>
+      </c>
+      <c r="N32">
+        <v>11</v>
+      </c>
+      <c r="O32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="1">
+        <v>43540</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <v>55</v>
+      </c>
+      <c r="D33">
+        <v>47</v>
+      </c>
+      <c r="E33">
+        <v>32</v>
+      </c>
+      <c r="F33">
+        <v>36</v>
+      </c>
+      <c r="G33">
+        <v>11</v>
+      </c>
+      <c r="H33">
+        <v>4</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
         <v>85</v>
       </c>
-      <c r="K27">
+      <c r="K33">
         <v>28</v>
       </c>
-      <c r="L27">
-        <v>25</v>
-      </c>
-      <c r="M27">
-        <v>19</v>
-      </c>
-      <c r="N27">
-        <v>11</v>
-      </c>
-      <c r="O27">
+      <c r="L33">
+        <v>25</v>
+      </c>
+      <c r="M33">
+        <v>19</v>
+      </c>
+      <c r="N33">
+        <v>11</v>
+      </c>
+      <c r="O33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="1">
+        <v>43541</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34">
+        <v>50</v>
+      </c>
+      <c r="D34">
+        <v>49</v>
+      </c>
+      <c r="E34">
+        <v>32</v>
+      </c>
+      <c r="F34">
+        <v>36</v>
+      </c>
+      <c r="G34">
+        <v>11</v>
+      </c>
+      <c r="H34">
+        <v>4</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>77</v>
+      </c>
+      <c r="K34">
+        <v>25</v>
+      </c>
+      <c r="L34">
+        <v>24</v>
+      </c>
+      <c r="M34">
+        <v>19</v>
+      </c>
+      <c r="N34">
+        <v>11</v>
+      </c>
+      <c r="O34">
         <v>4</v>
       </c>
     </row>

--- a/excels/lite/lite-Ages-Gender.xlsx
+++ b/excels/lite/lite-Ages-Gender.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -119,24 +119,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -144,23 +130,9 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -453,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O34"/>
+  <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2062,6 +2034,53 @@
         <v>4</v>
       </c>
     </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="1">
+        <v>43542</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="C35">
+        <v>50</v>
+      </c>
+      <c r="D35">
+        <v>49</v>
+      </c>
+      <c r="E35">
+        <v>33</v>
+      </c>
+      <c r="F35">
+        <v>36</v>
+      </c>
+      <c r="G35">
+        <v>11</v>
+      </c>
+      <c r="H35">
+        <v>4</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>75</v>
+      </c>
+      <c r="K35">
+        <v>27</v>
+      </c>
+      <c r="L35">
+        <v>23</v>
+      </c>
+      <c r="M35">
+        <v>19</v>
+      </c>
+      <c r="N35">
+        <v>11</v>
+      </c>
+      <c r="O35">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/excels/lite/lite-Ages-Gender.xlsx
+++ b/excels/lite/lite-Ages-Gender.xlsx
@@ -425,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O35"/>
+  <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2081,6 +2081,53 @@
         <v>4</v>
       </c>
     </row>
+    <row r="36" spans="1:15">
+      <c r="A36" s="1">
+        <v>43543</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36">
+        <v>50</v>
+      </c>
+      <c r="D36">
+        <v>49</v>
+      </c>
+      <c r="E36">
+        <v>33</v>
+      </c>
+      <c r="F36">
+        <v>36</v>
+      </c>
+      <c r="G36">
+        <v>11</v>
+      </c>
+      <c r="H36">
+        <v>4</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>75</v>
+      </c>
+      <c r="K36">
+        <v>27</v>
+      </c>
+      <c r="L36">
+        <v>23</v>
+      </c>
+      <c r="M36">
+        <v>19</v>
+      </c>
+      <c r="N36">
+        <v>11</v>
+      </c>
+      <c r="O36">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/excels/lite/lite-Ages-Gender.xlsx
+++ b/excels/lite/lite-Ages-Gender.xlsx
@@ -425,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O36"/>
+  <dimension ref="A1:O37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2128,6 +2128,53 @@
         <v>4</v>
       </c>
     </row>
+    <row r="37" spans="1:15">
+      <c r="A37" s="1">
+        <v>43544</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37">
+        <v>50</v>
+      </c>
+      <c r="D37">
+        <v>48</v>
+      </c>
+      <c r="E37">
+        <v>34</v>
+      </c>
+      <c r="F37">
+        <v>36</v>
+      </c>
+      <c r="G37">
+        <v>11</v>
+      </c>
+      <c r="H37">
+        <v>4</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>75</v>
+      </c>
+      <c r="K37">
+        <v>27</v>
+      </c>
+      <c r="L37">
+        <v>23</v>
+      </c>
+      <c r="M37">
+        <v>19</v>
+      </c>
+      <c r="N37">
+        <v>11</v>
+      </c>
+      <c r="O37">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/excels/lite/lite-Ages-Gender.xlsx
+++ b/excels/lite/lite-Ages-Gender.xlsx
@@ -425,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O37"/>
+  <dimension ref="A1:O38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2175,6 +2175,53 @@
         <v>4</v>
       </c>
     </row>
+    <row r="38" spans="1:15">
+      <c r="A38" s="1">
+        <v>43548</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38">
+        <v>50</v>
+      </c>
+      <c r="D38">
+        <v>48</v>
+      </c>
+      <c r="E38">
+        <v>34</v>
+      </c>
+      <c r="F38">
+        <v>36</v>
+      </c>
+      <c r="G38">
+        <v>11</v>
+      </c>
+      <c r="H38">
+        <v>4</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>75</v>
+      </c>
+      <c r="K38">
+        <v>27</v>
+      </c>
+      <c r="L38">
+        <v>23</v>
+      </c>
+      <c r="M38">
+        <v>19</v>
+      </c>
+      <c r="N38">
+        <v>11</v>
+      </c>
+      <c r="O38">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/excels/lite/lite-Ages-Gender.xlsx
+++ b/excels/lite/lite-Ages-Gender.xlsx
@@ -425,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O38"/>
+  <dimension ref="A1:O39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2222,6 +2222,53 @@
         <v>4</v>
       </c>
     </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="1">
+        <v>43549</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39">
+        <v>50</v>
+      </c>
+      <c r="D39">
+        <v>48</v>
+      </c>
+      <c r="E39">
+        <v>34</v>
+      </c>
+      <c r="F39">
+        <v>36</v>
+      </c>
+      <c r="G39">
+        <v>11</v>
+      </c>
+      <c r="H39">
+        <v>4</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>75</v>
+      </c>
+      <c r="K39">
+        <v>27</v>
+      </c>
+      <c r="L39">
+        <v>23</v>
+      </c>
+      <c r="M39">
+        <v>19</v>
+      </c>
+      <c r="N39">
+        <v>11</v>
+      </c>
+      <c r="O39">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/excels/lite/lite-Ages-Gender.xlsx
+++ b/excels/lite/lite-Ages-Gender.xlsx
@@ -425,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O39"/>
+  <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2269,6 +2269,53 @@
         <v>4</v>
       </c>
     </row>
+    <row r="40" spans="1:15">
+      <c r="A40" s="1">
+        <v>43550</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40">
+        <v>50</v>
+      </c>
+      <c r="D40">
+        <v>48</v>
+      </c>
+      <c r="E40">
+        <v>34</v>
+      </c>
+      <c r="F40">
+        <v>36</v>
+      </c>
+      <c r="G40">
+        <v>11</v>
+      </c>
+      <c r="H40">
+        <v>4</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>75</v>
+      </c>
+      <c r="K40">
+        <v>27</v>
+      </c>
+      <c r="L40">
+        <v>23</v>
+      </c>
+      <c r="M40">
+        <v>19</v>
+      </c>
+      <c r="N40">
+        <v>11</v>
+      </c>
+      <c r="O40">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/excels/lite/lite-Ages-Gender.xlsx
+++ b/excels/lite/lite-Ages-Gender.xlsx
@@ -425,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O40"/>
+  <dimension ref="A1:O41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2313,6 +2313,53 @@
         <v>11</v>
       </c>
       <c r="O40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" s="1">
+        <v>43556</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41">
+        <v>50</v>
+      </c>
+      <c r="D41">
+        <v>48</v>
+      </c>
+      <c r="E41">
+        <v>34</v>
+      </c>
+      <c r="F41">
+        <v>36</v>
+      </c>
+      <c r="G41">
+        <v>12</v>
+      </c>
+      <c r="H41">
+        <v>4</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>74</v>
+      </c>
+      <c r="K41">
+        <v>28</v>
+      </c>
+      <c r="L41">
+        <v>25</v>
+      </c>
+      <c r="M41">
+        <v>20</v>
+      </c>
+      <c r="N41">
+        <v>11</v>
+      </c>
+      <c r="O41">
         <v>4</v>
       </c>
     </row>

--- a/excels/lite/lite-Ages-Gender.xlsx
+++ b/excels/lite/lite-Ages-Gender.xlsx
@@ -425,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O41"/>
+  <dimension ref="A1:O44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="O43" sqref="O43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2318,7 +2318,7 @@
     </row>
     <row r="41" spans="1:15">
       <c r="A41" s="1">
-        <v>43556</v>
+        <v>43554</v>
       </c>
       <c r="B41">
         <v>3</v>
@@ -2345,10 +2345,10 @@
         <v>0</v>
       </c>
       <c r="J41">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K41">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L41">
         <v>25</v>
@@ -2360,6 +2360,147 @@
         <v>11</v>
       </c>
       <c r="O41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" s="1">
+        <v>43556</v>
+      </c>
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42">
+        <v>50</v>
+      </c>
+      <c r="D42">
+        <v>48</v>
+      </c>
+      <c r="E42">
+        <v>34</v>
+      </c>
+      <c r="F42">
+        <v>36</v>
+      </c>
+      <c r="G42">
+        <v>12</v>
+      </c>
+      <c r="H42">
+        <v>4</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>74</v>
+      </c>
+      <c r="K42">
+        <v>28</v>
+      </c>
+      <c r="L42">
+        <v>25</v>
+      </c>
+      <c r="M42">
+        <v>20</v>
+      </c>
+      <c r="N42">
+        <v>11</v>
+      </c>
+      <c r="O42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" s="1">
+        <v>43557</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43">
+        <v>52</v>
+      </c>
+      <c r="D43">
+        <v>58</v>
+      </c>
+      <c r="E43">
+        <v>42</v>
+      </c>
+      <c r="F43">
+        <v>43</v>
+      </c>
+      <c r="G43">
+        <v>12</v>
+      </c>
+      <c r="H43">
+        <v>5</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>76</v>
+      </c>
+      <c r="K43">
+        <v>30</v>
+      </c>
+      <c r="L43">
+        <v>27</v>
+      </c>
+      <c r="M43">
+        <v>22</v>
+      </c>
+      <c r="N43">
+        <v>11</v>
+      </c>
+      <c r="O43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" s="1">
+        <v>43558</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44">
+        <v>56</v>
+      </c>
+      <c r="D44">
+        <v>68</v>
+      </c>
+      <c r="E44">
+        <v>62</v>
+      </c>
+      <c r="F44">
+        <v>50</v>
+      </c>
+      <c r="G44">
+        <v>14</v>
+      </c>
+      <c r="H44">
+        <v>5</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>78</v>
+      </c>
+      <c r="K44">
+        <v>33</v>
+      </c>
+      <c r="L44">
+        <v>31</v>
+      </c>
+      <c r="M44">
+        <v>25</v>
+      </c>
+      <c r="N44">
+        <v>12</v>
+      </c>
+      <c r="O44">
         <v>4</v>
       </c>
     </row>

--- a/excels/lite/lite-Ages-Gender.xlsx
+++ b/excels/lite/lite-Ages-Gender.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giorgosandreou/Documents/Visual Studio/thesis-old/excels/lite/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="7120" yWindow="5260" windowWidth="31280" windowHeight="14480"/>
   </bookViews>
@@ -142,11 +137,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -435,18 +425,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O46"/>
+  <dimension ref="A1:O47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -493,7 +483,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>43499</v>
       </c>
@@ -540,7 +530,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>43501</v>
       </c>
@@ -587,7 +577,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>43503</v>
       </c>
@@ -634,7 +624,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>43504</v>
       </c>
@@ -681,7 +671,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>43505</v>
       </c>
@@ -728,7 +718,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>43507</v>
       </c>
@@ -775,7 +765,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>43507</v>
       </c>
@@ -822,7 +812,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>43507</v>
       </c>
@@ -869,7 +859,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>43508</v>
       </c>
@@ -916,7 +906,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>43509</v>
       </c>
@@ -963,7 +953,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>43510</v>
       </c>
@@ -1010,7 +1000,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>43512</v>
       </c>
@@ -1057,7 +1047,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>43515</v>
       </c>
@@ -1104,7 +1094,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>43519</v>
       </c>
@@ -1151,7 +1141,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>43520</v>
       </c>
@@ -1198,7 +1188,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>43521</v>
       </c>
@@ -1245,7 +1235,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15">
       <c r="A18" s="2">
         <v>43525</v>
       </c>
@@ -1292,7 +1282,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>43526</v>
       </c>
@@ -1339,7 +1329,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>43527</v>
       </c>
@@ -1386,7 +1376,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>43528</v>
       </c>
@@ -1433,7 +1423,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>43529</v>
       </c>
@@ -1480,7 +1470,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>43530</v>
       </c>
@@ -1527,7 +1517,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>43531</v>
       </c>
@@ -1574,7 +1564,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>43532</v>
       </c>
@@ -1621,7 +1611,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15">
       <c r="A26" s="1">
         <v>43533</v>
       </c>
@@ -1668,7 +1658,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15">
       <c r="A27" s="1">
         <v>43534</v>
       </c>
@@ -1715,7 +1705,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15">
       <c r="A28" s="1">
         <v>43535</v>
       </c>
@@ -1762,7 +1752,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15">
       <c r="A29" s="1">
         <v>43536</v>
       </c>
@@ -1809,7 +1799,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15">
       <c r="A30" s="1">
         <v>43537</v>
       </c>
@@ -1856,7 +1846,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15">
       <c r="A31" s="1">
         <v>43538</v>
       </c>
@@ -1903,7 +1893,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15">
       <c r="A32" s="1">
         <v>43539</v>
       </c>
@@ -1950,7 +1940,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15">
       <c r="A33" s="1">
         <v>43540</v>
       </c>
@@ -1997,7 +1987,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15">
       <c r="A34" s="1">
         <v>43541</v>
       </c>
@@ -2044,7 +2034,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15">
       <c r="A35" s="1">
         <v>43542</v>
       </c>
@@ -2091,7 +2081,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15">
       <c r="A36" s="1">
         <v>43543</v>
       </c>
@@ -2138,7 +2128,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15">
       <c r="A37" s="1">
         <v>43544</v>
       </c>
@@ -2185,7 +2175,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15">
       <c r="A38" s="1">
         <v>43548</v>
       </c>
@@ -2232,7 +2222,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15">
       <c r="A39" s="1">
         <v>43549</v>
       </c>
@@ -2279,7 +2269,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15">
       <c r="A40" s="1">
         <v>43550</v>
       </c>
@@ -2326,7 +2316,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15">
       <c r="A41" s="1">
         <v>43554</v>
       </c>
@@ -2373,7 +2363,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15">
       <c r="A42" s="1">
         <v>43556</v>
       </c>
@@ -2420,7 +2410,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15">
       <c r="A43" s="1">
         <v>43557</v>
       </c>
@@ -2467,7 +2457,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15">
       <c r="A44" s="1">
         <v>43558</v>
       </c>
@@ -2514,7 +2504,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15">
       <c r="A45" s="1">
         <v>43559</v>
       </c>
@@ -2561,7 +2551,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15">
       <c r="A46" s="1">
         <v>43560</v>
       </c>
@@ -2605,11 +2595,63 @@
         <v>12</v>
       </c>
       <c r="O46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47" s="1">
+        <v>43561</v>
+      </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47">
+        <v>57</v>
+      </c>
+      <c r="D47">
+        <v>72</v>
+      </c>
+      <c r="E47">
+        <v>75</v>
+      </c>
+      <c r="F47">
+        <v>57</v>
+      </c>
+      <c r="G47">
+        <v>14</v>
+      </c>
+      <c r="H47">
+        <v>5</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>78</v>
+      </c>
+      <c r="K47">
+        <v>34</v>
+      </c>
+      <c r="L47">
+        <v>34</v>
+      </c>
+      <c r="M47">
+        <v>25</v>
+      </c>
+      <c r="N47">
+        <v>12</v>
+      </c>
+      <c r="O47">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/excels/lite/lite-Ages-Gender.xlsx
+++ b/excels/lite/lite-Ages-Gender.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26215"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giorgosandreou/Documents/Visual Studio/thesis-old/excels/lite/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7120" yWindow="5260" windowWidth="31280" windowHeight="14480"/>
+    <workbookView xWindow="3640" yWindow="5680" windowWidth="33020" windowHeight="14480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -137,6 +142,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -425,18 +435,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O47"/>
+  <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -483,7 +493,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43499</v>
       </c>
@@ -530,7 +540,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43501</v>
       </c>
@@ -577,7 +587,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>43503</v>
       </c>
@@ -624,7 +634,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>43504</v>
       </c>
@@ -671,7 +681,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>43505</v>
       </c>
@@ -718,7 +728,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>43507</v>
       </c>
@@ -765,7 +775,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>43507</v>
       </c>
@@ -812,7 +822,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>43507</v>
       </c>
@@ -859,7 +869,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>43508</v>
       </c>
@@ -906,7 +916,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>43509</v>
       </c>
@@ -953,7 +963,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>43510</v>
       </c>
@@ -1000,7 +1010,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>43512</v>
       </c>
@@ -1047,7 +1057,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>43515</v>
       </c>
@@ -1094,7 +1104,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>43519</v>
       </c>
@@ -1141,7 +1151,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>43520</v>
       </c>
@@ -1188,7 +1198,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>43521</v>
       </c>
@@ -1235,7 +1245,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>43525</v>
       </c>
@@ -1282,7 +1292,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>43526</v>
       </c>
@@ -1329,7 +1339,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>43527</v>
       </c>
@@ -1376,7 +1386,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>43528</v>
       </c>
@@ -1423,7 +1433,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>43529</v>
       </c>
@@ -1470,7 +1480,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>43530</v>
       </c>
@@ -1517,7 +1527,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>43531</v>
       </c>
@@ -1564,7 +1574,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>43532</v>
       </c>
@@ -1611,7 +1621,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>43533</v>
       </c>
@@ -1658,7 +1668,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>43534</v>
       </c>
@@ -1705,7 +1715,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>43535</v>
       </c>
@@ -1752,7 +1762,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>43536</v>
       </c>
@@ -1799,7 +1809,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>43537</v>
       </c>
@@ -1846,7 +1856,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>43538</v>
       </c>
@@ -1893,7 +1903,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>43539</v>
       </c>
@@ -1940,7 +1950,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>43540</v>
       </c>
@@ -1987,7 +1997,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>43541</v>
       </c>
@@ -2034,7 +2044,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>43542</v>
       </c>
@@ -2081,7 +2091,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>43543</v>
       </c>
@@ -2128,7 +2138,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>43544</v>
       </c>
@@ -2175,9 +2185,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>43548</v>
+        <v>43545</v>
       </c>
       <c r="B38">
         <v>3</v>
@@ -2222,9 +2232,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>43549</v>
+        <v>43546</v>
       </c>
       <c r="B39">
         <v>3</v>
@@ -2269,9 +2279,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>43550</v>
+        <v>43547</v>
       </c>
       <c r="B40">
         <v>3</v>
@@ -2316,9 +2326,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>43554</v>
+        <v>43548</v>
       </c>
       <c r="B41">
         <v>3</v>
@@ -2336,7 +2346,7 @@
         <v>36</v>
       </c>
       <c r="G41">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H41">
         <v>4</v>
@@ -2351,10 +2361,10 @@
         <v>27</v>
       </c>
       <c r="L41">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M41">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N41">
         <v>11</v>
@@ -2363,9 +2373,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>43556</v>
+        <v>43549</v>
       </c>
       <c r="B42">
         <v>3</v>
@@ -2383,275 +2393,599 @@
         <v>36</v>
       </c>
       <c r="G42">
+        <v>11</v>
+      </c>
+      <c r="H42">
+        <v>4</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>75</v>
+      </c>
+      <c r="K42">
+        <v>27</v>
+      </c>
+      <c r="L42">
+        <v>23</v>
+      </c>
+      <c r="M42">
+        <v>19</v>
+      </c>
+      <c r="N42">
+        <v>11</v>
+      </c>
+      <c r="O42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>43550</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43">
+        <v>50</v>
+      </c>
+      <c r="D43">
+        <v>48</v>
+      </c>
+      <c r="E43">
+        <v>34</v>
+      </c>
+      <c r="F43">
+        <v>36</v>
+      </c>
+      <c r="G43">
+        <v>11</v>
+      </c>
+      <c r="H43">
+        <v>4</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>75</v>
+      </c>
+      <c r="K43">
+        <v>27</v>
+      </c>
+      <c r="L43">
+        <v>23</v>
+      </c>
+      <c r="M43">
+        <v>19</v>
+      </c>
+      <c r="N43">
+        <v>11</v>
+      </c>
+      <c r="O43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>43551</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44">
+        <v>50</v>
+      </c>
+      <c r="D44">
+        <v>48</v>
+      </c>
+      <c r="E44">
+        <v>34</v>
+      </c>
+      <c r="F44">
+        <v>36</v>
+      </c>
+      <c r="G44">
+        <v>11</v>
+      </c>
+      <c r="H44">
+        <v>4</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>75</v>
+      </c>
+      <c r="K44">
+        <v>27</v>
+      </c>
+      <c r="L44">
+        <v>23</v>
+      </c>
+      <c r="M44">
+        <v>19</v>
+      </c>
+      <c r="N44">
+        <v>11</v>
+      </c>
+      <c r="O44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>43552</v>
+      </c>
+      <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="C45">
+        <v>50</v>
+      </c>
+      <c r="D45">
+        <v>48</v>
+      </c>
+      <c r="E45">
+        <v>34</v>
+      </c>
+      <c r="F45">
+        <v>36</v>
+      </c>
+      <c r="G45">
+        <v>11</v>
+      </c>
+      <c r="H45">
+        <v>4</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>75</v>
+      </c>
+      <c r="K45">
+        <v>27</v>
+      </c>
+      <c r="L45">
+        <v>23</v>
+      </c>
+      <c r="M45">
+        <v>19</v>
+      </c>
+      <c r="N45">
+        <v>11</v>
+      </c>
+      <c r="O45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>43553</v>
+      </c>
+      <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="C46">
+        <v>50</v>
+      </c>
+      <c r="D46">
+        <v>48</v>
+      </c>
+      <c r="E46">
+        <v>34</v>
+      </c>
+      <c r="F46">
+        <v>36</v>
+      </c>
+      <c r="G46">
+        <v>11</v>
+      </c>
+      <c r="H46">
+        <v>4</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>75</v>
+      </c>
+      <c r="K46">
+        <v>27</v>
+      </c>
+      <c r="L46">
+        <v>23</v>
+      </c>
+      <c r="M46">
+        <v>19</v>
+      </c>
+      <c r="N46">
+        <v>11</v>
+      </c>
+      <c r="O46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>43554</v>
+      </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47">
+        <v>50</v>
+      </c>
+      <c r="D47">
+        <v>48</v>
+      </c>
+      <c r="E47">
+        <v>34</v>
+      </c>
+      <c r="F47">
+        <v>36</v>
+      </c>
+      <c r="G47">
         <v>12</v>
       </c>
-      <c r="H42">
-        <v>4</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
+      <c r="H47">
+        <v>4</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>75</v>
+      </c>
+      <c r="K47">
+        <v>27</v>
+      </c>
+      <c r="L47">
+        <v>25</v>
+      </c>
+      <c r="M47">
+        <v>20</v>
+      </c>
+      <c r="N47">
+        <v>11</v>
+      </c>
+      <c r="O47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B48">
+        <v>3</v>
+      </c>
+      <c r="C48">
+        <v>50</v>
+      </c>
+      <c r="D48">
+        <v>48</v>
+      </c>
+      <c r="E48">
+        <v>34</v>
+      </c>
+      <c r="F48">
+        <v>36</v>
+      </c>
+      <c r="G48">
+        <v>12</v>
+      </c>
+      <c r="H48">
+        <v>4</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>75</v>
+      </c>
+      <c r="K48">
+        <v>27</v>
+      </c>
+      <c r="L48">
+        <v>25</v>
+      </c>
+      <c r="M48">
+        <v>20</v>
+      </c>
+      <c r="N48">
+        <v>11</v>
+      </c>
+      <c r="O48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>43556</v>
+      </c>
+      <c r="B49">
+        <v>3</v>
+      </c>
+      <c r="C49">
+        <v>50</v>
+      </c>
+      <c r="D49">
+        <v>48</v>
+      </c>
+      <c r="E49">
+        <v>34</v>
+      </c>
+      <c r="F49">
+        <v>36</v>
+      </c>
+      <c r="G49">
+        <v>12</v>
+      </c>
+      <c r="H49">
+        <v>4</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
         <v>74</v>
       </c>
-      <c r="K42">
+      <c r="K49">
         <v>28</v>
       </c>
-      <c r="L42">
-        <v>25</v>
-      </c>
-      <c r="M42">
+      <c r="L49">
+        <v>25</v>
+      </c>
+      <c r="M49">
         <v>20</v>
       </c>
-      <c r="N42">
-        <v>11</v>
-      </c>
-      <c r="O42">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15">
-      <c r="A43" s="1">
+      <c r="N49">
+        <v>11</v>
+      </c>
+      <c r="O49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
         <v>43557</v>
       </c>
-      <c r="B43">
-        <v>3</v>
-      </c>
-      <c r="C43">
+      <c r="B50">
+        <v>3</v>
+      </c>
+      <c r="C50">
         <v>52</v>
       </c>
-      <c r="D43">
+      <c r="D50">
         <v>58</v>
       </c>
-      <c r="E43">
+      <c r="E50">
         <v>42</v>
       </c>
-      <c r="F43">
+      <c r="F50">
         <v>43</v>
       </c>
-      <c r="G43">
+      <c r="G50">
         <v>12</v>
       </c>
-      <c r="H43">
+      <c r="H50">
         <v>5</v>
       </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
         <v>76</v>
       </c>
-      <c r="K43">
+      <c r="K50">
         <v>30</v>
       </c>
-      <c r="L43">
+      <c r="L50">
         <v>27</v>
       </c>
-      <c r="M43">
+      <c r="M50">
         <v>22</v>
       </c>
-      <c r="N43">
-        <v>11</v>
-      </c>
-      <c r="O43">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15">
-      <c r="A44" s="1">
+      <c r="N50">
+        <v>11</v>
+      </c>
+      <c r="O50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
         <v>43558</v>
       </c>
-      <c r="B44">
-        <v>3</v>
-      </c>
-      <c r="C44">
+      <c r="B51">
+        <v>3</v>
+      </c>
+      <c r="C51">
         <v>56</v>
       </c>
-      <c r="D44">
+      <c r="D51">
         <v>68</v>
       </c>
-      <c r="E44">
+      <c r="E51">
         <v>62</v>
       </c>
-      <c r="F44">
+      <c r="F51">
         <v>50</v>
       </c>
-      <c r="G44">
+      <c r="G51">
         <v>14</v>
       </c>
-      <c r="H44">
+      <c r="H51">
         <v>5</v>
       </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44">
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
         <v>78</v>
       </c>
-      <c r="K44">
+      <c r="K51">
         <v>33</v>
       </c>
-      <c r="L44">
+      <c r="L51">
         <v>31</v>
       </c>
-      <c r="M44">
-        <v>25</v>
-      </c>
-      <c r="N44">
+      <c r="M51">
+        <v>25</v>
+      </c>
+      <c r="N51">
         <v>12</v>
       </c>
-      <c r="O44">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15">
-      <c r="A45" s="1">
+      <c r="O51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
         <v>43559</v>
       </c>
-      <c r="B45">
-        <v>3</v>
-      </c>
-      <c r="C45">
+      <c r="B52">
+        <v>3</v>
+      </c>
+      <c r="C52">
         <v>57</v>
       </c>
-      <c r="D45">
+      <c r="D52">
         <v>70</v>
       </c>
-      <c r="E45">
+      <c r="E52">
         <v>72</v>
       </c>
-      <c r="F45">
+      <c r="F52">
         <v>54</v>
       </c>
-      <c r="G45">
+      <c r="G52">
         <v>14</v>
       </c>
-      <c r="H45">
+      <c r="H52">
         <v>5</v>
       </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="J45">
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
         <v>78</v>
       </c>
-      <c r="K45">
+      <c r="K52">
         <v>33</v>
       </c>
-      <c r="L45">
+      <c r="L52">
         <v>33</v>
       </c>
-      <c r="M45">
-        <v>25</v>
-      </c>
-      <c r="N45">
+      <c r="M52">
+        <v>25</v>
+      </c>
+      <c r="N52">
         <v>12</v>
       </c>
-      <c r="O45">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15">
-      <c r="A46" s="1">
+      <c r="O52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
         <v>43560</v>
       </c>
-      <c r="B46">
-        <v>3</v>
-      </c>
-      <c r="C46">
+      <c r="B53">
+        <v>3</v>
+      </c>
+      <c r="C53">
         <v>57</v>
       </c>
-      <c r="D46">
+      <c r="D53">
         <v>72</v>
       </c>
-      <c r="E46">
+      <c r="E53">
         <v>74</v>
       </c>
-      <c r="F46">
+      <c r="F53">
         <v>56</v>
       </c>
-      <c r="G46">
+      <c r="G53">
         <v>14</v>
       </c>
-      <c r="H46">
+      <c r="H53">
         <v>5</v>
       </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46">
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
         <v>78</v>
       </c>
-      <c r="K46">
+      <c r="K53">
         <v>34</v>
       </c>
-      <c r="L46">
+      <c r="L53">
         <v>33</v>
       </c>
-      <c r="M46">
-        <v>25</v>
-      </c>
-      <c r="N46">
+      <c r="M53">
+        <v>25</v>
+      </c>
+      <c r="N53">
         <v>12</v>
       </c>
-      <c r="O46">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15">
-      <c r="A47" s="1">
+      <c r="O53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
         <v>43561</v>
       </c>
-      <c r="B47">
-        <v>3</v>
-      </c>
-      <c r="C47">
+      <c r="B54">
+        <v>3</v>
+      </c>
+      <c r="C54">
         <v>57</v>
       </c>
-      <c r="D47">
+      <c r="D54">
         <v>72</v>
       </c>
-      <c r="E47">
+      <c r="E54">
         <v>75</v>
       </c>
-      <c r="F47">
+      <c r="F54">
         <v>57</v>
       </c>
-      <c r="G47">
+      <c r="G54">
         <v>14</v>
       </c>
-      <c r="H47">
+      <c r="H54">
         <v>5</v>
       </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47">
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
         <v>78</v>
       </c>
-      <c r="K47">
+      <c r="K54">
         <v>34</v>
       </c>
-      <c r="L47">
+      <c r="L54">
         <v>34</v>
       </c>
-      <c r="M47">
-        <v>25</v>
-      </c>
-      <c r="N47">
+      <c r="M54">
+        <v>25</v>
+      </c>
+      <c r="N54">
         <v>12</v>
       </c>
-      <c r="O47">
+      <c r="O54">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/excels/lite/lite-Ages-Gender.xlsx
+++ b/excels/lite/lite-Ages-Gender.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26215"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giorgosandreou/Documents/Visual Studio/thesis-old/excels/lite/"/>
@@ -435,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O54"/>
+  <dimension ref="A1:O56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B55" sqref="A55:O55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2984,6 +2984,100 @@
         <v>4</v>
       </c>
     </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>43562</v>
+      </c>
+      <c r="B55">
+        <v>3</v>
+      </c>
+      <c r="C55">
+        <v>57</v>
+      </c>
+      <c r="D55">
+        <v>73</v>
+      </c>
+      <c r="E55">
+        <v>75</v>
+      </c>
+      <c r="F55">
+        <v>57</v>
+      </c>
+      <c r="G55">
+        <v>14</v>
+      </c>
+      <c r="H55">
+        <v>5</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>77</v>
+      </c>
+      <c r="K55">
+        <v>35</v>
+      </c>
+      <c r="L55">
+        <v>35</v>
+      </c>
+      <c r="M55">
+        <v>25</v>
+      </c>
+      <c r="N55">
+        <v>12</v>
+      </c>
+      <c r="O55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>43563</v>
+      </c>
+      <c r="B56">
+        <v>3</v>
+      </c>
+      <c r="C56">
+        <v>57</v>
+      </c>
+      <c r="D56">
+        <v>73</v>
+      </c>
+      <c r="E56">
+        <v>75</v>
+      </c>
+      <c r="F56">
+        <v>57</v>
+      </c>
+      <c r="G56">
+        <v>14</v>
+      </c>
+      <c r="H56">
+        <v>5</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>77</v>
+      </c>
+      <c r="K56">
+        <v>35</v>
+      </c>
+      <c r="L56">
+        <v>35</v>
+      </c>
+      <c r="M56">
+        <v>25</v>
+      </c>
+      <c r="N56">
+        <v>12</v>
+      </c>
+      <c r="O56">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/excels/lite/lite-Ages-Gender.xlsx
+++ b/excels/lite/lite-Ages-Gender.xlsx
@@ -435,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O56"/>
+  <dimension ref="A1:O57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B55" sqref="A55:O55"/>
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3078,6 +3078,53 @@
         <v>4</v>
       </c>
     </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>43564</v>
+      </c>
+      <c r="B57">
+        <v>3</v>
+      </c>
+      <c r="C57">
+        <v>57</v>
+      </c>
+      <c r="D57">
+        <v>73</v>
+      </c>
+      <c r="E57">
+        <v>75</v>
+      </c>
+      <c r="F57">
+        <v>56</v>
+      </c>
+      <c r="G57">
+        <v>14</v>
+      </c>
+      <c r="H57">
+        <v>5</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>77</v>
+      </c>
+      <c r="K57">
+        <v>35</v>
+      </c>
+      <c r="L57">
+        <v>35</v>
+      </c>
+      <c r="M57">
+        <v>25</v>
+      </c>
+      <c r="N57">
+        <v>12</v>
+      </c>
+      <c r="O57">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/excels/lite/lite-Ages-Gender.xlsx
+++ b/excels/lite/lite-Ages-Gender.xlsx
@@ -435,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O57"/>
+  <dimension ref="A1:O58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3125,6 +3125,53 @@
         <v>4</v>
       </c>
     </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>43565</v>
+      </c>
+      <c r="B58">
+        <v>3</v>
+      </c>
+      <c r="C58">
+        <v>57</v>
+      </c>
+      <c r="D58">
+        <v>73</v>
+      </c>
+      <c r="E58">
+        <v>75</v>
+      </c>
+      <c r="F58">
+        <v>56</v>
+      </c>
+      <c r="G58">
+        <v>14</v>
+      </c>
+      <c r="H58">
+        <v>5</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>77</v>
+      </c>
+      <c r="K58">
+        <v>35</v>
+      </c>
+      <c r="L58">
+        <v>35</v>
+      </c>
+      <c r="M58">
+        <v>25</v>
+      </c>
+      <c r="N58">
+        <v>12</v>
+      </c>
+      <c r="O58">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/excels/lite/lite-Ages-Gender.xlsx
+++ b/excels/lite/lite-Ages-Gender.xlsx
@@ -435,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O58"/>
+  <dimension ref="A1:O61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -495,7 +495,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>43499</v>
+        <v>43497</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -542,7 +542,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>43501</v>
+        <v>43498</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -589,13 +589,13 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>43503</v>
+        <v>43499</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D4">
         <v>49</v>
@@ -604,7 +604,7 @@
         <v>31</v>
       </c>
       <c r="F4">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G4">
         <v>11</v>
@@ -616,16 +616,16 @@
         <v>1</v>
       </c>
       <c r="J4">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K4">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M4">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N4">
         <v>11</v>
@@ -636,22 +636,22 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>43504</v>
+        <v>43500</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D5">
         <v>49</v>
       </c>
       <c r="E5">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F5">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G5">
         <v>11</v>
@@ -663,16 +663,16 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K5">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L5">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M5">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N5">
         <v>11</v>
@@ -683,19 +683,19 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>43505</v>
+        <v>43501</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D6">
         <v>49</v>
       </c>
       <c r="E6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F6">
         <v>37</v>
@@ -710,16 +710,16 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K6">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L6">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M6">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N6">
         <v>11</v>
@@ -730,7 +730,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>43507</v>
+        <v>43502</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -742,10 +742,10 @@
         <v>49</v>
       </c>
       <c r="E7">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F7">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G7">
         <v>11</v>
@@ -757,13 +757,13 @@
         <v>1</v>
       </c>
       <c r="J7">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K7">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L7">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M7">
         <v>19</v>
@@ -777,7 +777,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>43507</v>
+        <v>43503</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -810,7 +810,7 @@
         <v>25</v>
       </c>
       <c r="L8">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M8">
         <v>19</v>
@@ -824,7 +824,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>43507</v>
+        <v>43504</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -871,7 +871,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>43508</v>
+        <v>43505</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -918,7 +918,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>43509</v>
+        <v>43506</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -965,7 +965,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>43510</v>
+        <v>43507</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -980,7 +980,7 @@
         <v>32</v>
       </c>
       <c r="F12">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G12">
         <v>11</v>
@@ -1012,7 +1012,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>43512</v>
+        <v>43508</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -1027,7 +1027,7 @@
         <v>32</v>
       </c>
       <c r="F13">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G13">
         <v>11</v>
@@ -1059,7 +1059,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>43515</v>
+        <v>43509</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -1074,7 +1074,7 @@
         <v>32</v>
       </c>
       <c r="F14">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G14">
         <v>11</v>
@@ -1106,7 +1106,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>43519</v>
+        <v>43510</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -1133,7 +1133,7 @@
         <v>1</v>
       </c>
       <c r="J15">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K15">
         <v>25</v>
@@ -1153,7 +1153,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>43520</v>
+        <v>43512</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -1180,7 +1180,7 @@
         <v>1</v>
       </c>
       <c r="J16">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K16">
         <v>25</v>
@@ -1200,7 +1200,7 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>43521</v>
+        <v>43515</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -1227,7 +1227,7 @@
         <v>1</v>
       </c>
       <c r="J17">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K17">
         <v>25</v>
@@ -1246,58 +1246,58 @@
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
-        <v>43525</v>
-      </c>
-      <c r="B18" s="3">
-        <v>3</v>
-      </c>
-      <c r="C18" s="3">
+      <c r="A18" s="1">
+        <v>43519</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
         <v>51</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18">
         <v>49</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18">
         <v>32</v>
       </c>
-      <c r="F18" s="3">
-        <v>36</v>
-      </c>
-      <c r="G18" s="3">
-        <v>11</v>
-      </c>
-      <c r="H18" s="3">
-        <v>4</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="F18">
+        <v>36</v>
+      </c>
+      <c r="G18">
+        <v>11</v>
+      </c>
+      <c r="H18">
+        <v>4</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
         <v>77</v>
       </c>
-      <c r="K18" s="3">
-        <v>25</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="K18">
+        <v>25</v>
+      </c>
+      <c r="L18">
         <v>24</v>
       </c>
-      <c r="M18" s="3">
-        <v>19</v>
-      </c>
-      <c r="N18" s="3">
-        <v>11</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="M18">
+        <v>19</v>
+      </c>
+      <c r="N18">
+        <v>11</v>
+      </c>
+      <c r="O18">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>43526</v>
+        <v>43520</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19">
         <v>51</v>
@@ -1318,7 +1318,7 @@
         <v>4</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
         <v>77</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>43527</v>
+        <v>43521</v>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C20">
         <v>51</v>
@@ -1365,7 +1365,7 @@
         <v>4</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
         <v>77</v>
@@ -1387,55 +1387,55 @@
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>43528</v>
-      </c>
-      <c r="B21">
-        <v>3</v>
-      </c>
-      <c r="C21">
+      <c r="A21" s="2">
+        <v>43525</v>
+      </c>
+      <c r="B21" s="3">
+        <v>3</v>
+      </c>
+      <c r="C21" s="3">
         <v>51</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="3">
         <v>49</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="3">
         <v>32</v>
       </c>
-      <c r="F21">
-        <v>36</v>
-      </c>
-      <c r="G21">
-        <v>11</v>
-      </c>
-      <c r="H21">
-        <v>4</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
+      <c r="F21" s="3">
+        <v>36</v>
+      </c>
+      <c r="G21" s="3">
+        <v>11</v>
+      </c>
+      <c r="H21" s="3">
+        <v>4</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
         <v>77</v>
       </c>
-      <c r="K21">
-        <v>25</v>
-      </c>
-      <c r="L21">
+      <c r="K21" s="3">
+        <v>25</v>
+      </c>
+      <c r="L21" s="3">
         <v>24</v>
       </c>
-      <c r="M21">
-        <v>19</v>
-      </c>
-      <c r="N21">
-        <v>11</v>
-      </c>
-      <c r="O21">
+      <c r="M21" s="3">
+        <v>19</v>
+      </c>
+      <c r="N21" s="3">
+        <v>11</v>
+      </c>
+      <c r="O21" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>43529</v>
+        <v>43526</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -1482,7 +1482,7 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>43530</v>
+        <v>43527</v>
       </c>
       <c r="B23">
         <v>3</v>
@@ -1529,7 +1529,7 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>43531</v>
+        <v>43528</v>
       </c>
       <c r="B24">
         <v>3</v>
@@ -1576,7 +1576,7 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>43532</v>
+        <v>43529</v>
       </c>
       <c r="B25">
         <v>3</v>
@@ -1623,7 +1623,7 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>43533</v>
+        <v>43530</v>
       </c>
       <c r="B26">
         <v>3</v>
@@ -1670,7 +1670,7 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>43534</v>
+        <v>43531</v>
       </c>
       <c r="B27">
         <v>3</v>
@@ -1717,13 +1717,13 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>43535</v>
+        <v>43532</v>
       </c>
       <c r="B28">
         <v>3</v>
       </c>
       <c r="C28">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D28">
         <v>49</v>
@@ -1764,13 +1764,13 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>43536</v>
+        <v>43533</v>
       </c>
       <c r="B29">
         <v>3</v>
       </c>
       <c r="C29">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D29">
         <v>49</v>
@@ -1811,19 +1811,19 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>43537</v>
+        <v>43534</v>
       </c>
       <c r="B30">
         <v>3</v>
       </c>
       <c r="C30">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D30">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E30">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F30">
         <v>36</v>
@@ -1838,7 +1838,7 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K30">
         <v>25</v>
@@ -1858,16 +1858,16 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>43538</v>
+        <v>43535</v>
       </c>
       <c r="B31">
         <v>3</v>
       </c>
       <c r="C31">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D31">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E31">
         <v>32</v>
@@ -1885,10 +1885,10 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="K31">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L31">
         <v>24</v>
@@ -1905,16 +1905,16 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>43539</v>
+        <v>43536</v>
       </c>
       <c r="B32">
         <v>3</v>
       </c>
       <c r="C32">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D32">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E32">
         <v>32</v>
@@ -1932,10 +1932,10 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="K32">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L32">
         <v>24</v>
@@ -1952,19 +1952,19 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>43540</v>
+        <v>43537</v>
       </c>
       <c r="B33">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C33">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D33">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E33">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F33">
         <v>36</v>
@@ -1979,13 +1979,13 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="K33">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L33">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M33">
         <v>19</v>
@@ -1999,16 +1999,16 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>43541</v>
+        <v>43538</v>
       </c>
       <c r="B34">
         <v>3</v>
       </c>
       <c r="C34">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D34">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E34">
         <v>32</v>
@@ -2026,10 +2026,10 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K34">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L34">
         <v>24</v>
@@ -2046,19 +2046,19 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>43542</v>
+        <v>43539</v>
       </c>
       <c r="B35">
         <v>3</v>
       </c>
       <c r="C35">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D35">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E35">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F35">
         <v>36</v>
@@ -2073,13 +2073,13 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="K35">
         <v>27</v>
       </c>
       <c r="L35">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M35">
         <v>19</v>
@@ -2093,19 +2093,19 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>43543</v>
+        <v>43540</v>
       </c>
       <c r="B36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C36">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D36">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E36">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F36">
         <v>36</v>
@@ -2120,13 +2120,13 @@
         <v>0</v>
       </c>
       <c r="J36">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K36">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L36">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M36">
         <v>19</v>
@@ -2140,7 +2140,7 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>43544</v>
+        <v>43541</v>
       </c>
       <c r="B37">
         <v>3</v>
@@ -2149,10 +2149,10 @@
         <v>50</v>
       </c>
       <c r="D37">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E37">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F37">
         <v>36</v>
@@ -2167,13 +2167,13 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K37">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L37">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M37">
         <v>19</v>
@@ -2187,7 +2187,7 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>43545</v>
+        <v>43542</v>
       </c>
       <c r="B38">
         <v>3</v>
@@ -2196,10 +2196,10 @@
         <v>50</v>
       </c>
       <c r="D38">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E38">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F38">
         <v>36</v>
@@ -2234,7 +2234,7 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>43546</v>
+        <v>43543</v>
       </c>
       <c r="B39">
         <v>3</v>
@@ -2243,10 +2243,10 @@
         <v>50</v>
       </c>
       <c r="D39">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E39">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F39">
         <v>36</v>
@@ -2281,7 +2281,7 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>43547</v>
+        <v>43544</v>
       </c>
       <c r="B40">
         <v>3</v>
@@ -2328,7 +2328,7 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>43548</v>
+        <v>43545</v>
       </c>
       <c r="B41">
         <v>3</v>
@@ -2375,7 +2375,7 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>43549</v>
+        <v>43546</v>
       </c>
       <c r="B42">
         <v>3</v>
@@ -2422,7 +2422,7 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>43550</v>
+        <v>43547</v>
       </c>
       <c r="B43">
         <v>3</v>
@@ -2469,7 +2469,7 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>43551</v>
+        <v>43548</v>
       </c>
       <c r="B44">
         <v>3</v>
@@ -2516,7 +2516,7 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>43552</v>
+        <v>43549</v>
       </c>
       <c r="B45">
         <v>3</v>
@@ -2563,7 +2563,7 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>43553</v>
+        <v>43550</v>
       </c>
       <c r="B46">
         <v>3</v>
@@ -2610,7 +2610,7 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>43554</v>
+        <v>43551</v>
       </c>
       <c r="B47">
         <v>3</v>
@@ -2628,7 +2628,7 @@
         <v>36</v>
       </c>
       <c r="G47">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H47">
         <v>4</v>
@@ -2643,10 +2643,10 @@
         <v>27</v>
       </c>
       <c r="L47">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M47">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N47">
         <v>11</v>
@@ -2657,7 +2657,7 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>43555</v>
+        <v>43552</v>
       </c>
       <c r="B48">
         <v>3</v>
@@ -2675,7 +2675,7 @@
         <v>36</v>
       </c>
       <c r="G48">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H48">
         <v>4</v>
@@ -2690,10 +2690,10 @@
         <v>27</v>
       </c>
       <c r="L48">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M48">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N48">
         <v>11</v>
@@ -2704,7 +2704,7 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>43556</v>
+        <v>43553</v>
       </c>
       <c r="B49">
         <v>3</v>
@@ -2722,7 +2722,7 @@
         <v>36</v>
       </c>
       <c r="G49">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H49">
         <v>4</v>
@@ -2731,16 +2731,16 @@
         <v>0</v>
       </c>
       <c r="J49">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K49">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L49">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M49">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N49">
         <v>11</v>
@@ -2751,43 +2751,43 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>43557</v>
+        <v>43554</v>
       </c>
       <c r="B50">
         <v>3</v>
       </c>
       <c r="C50">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D50">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E50">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F50">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G50">
         <v>12</v>
       </c>
       <c r="H50">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I50">
         <v>0</v>
       </c>
       <c r="J50">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K50">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L50">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M50">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N50">
         <v>11</v>
@@ -2798,46 +2798,46 @@
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>43558</v>
+        <v>43555</v>
       </c>
       <c r="B51">
         <v>3</v>
       </c>
       <c r="C51">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D51">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="E51">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="F51">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="G51">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H51">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I51">
         <v>0</v>
       </c>
       <c r="J51">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K51">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="L51">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M51">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N51">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O51">
         <v>4</v>
@@ -2845,46 +2845,46 @@
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>43559</v>
+        <v>43556</v>
       </c>
       <c r="B52">
         <v>3</v>
       </c>
       <c r="C52">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D52">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="E52">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="F52">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="G52">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H52">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I52">
         <v>0</v>
       </c>
       <c r="J52">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K52">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="L52">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="M52">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N52">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O52">
         <v>4</v>
@@ -2892,25 +2892,25 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>43560</v>
+        <v>43557</v>
       </c>
       <c r="B53">
         <v>3</v>
       </c>
       <c r="C53">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D53">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="E53">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="F53">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="G53">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H53">
         <v>5</v>
@@ -2919,19 +2919,19 @@
         <v>0</v>
       </c>
       <c r="J53">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K53">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="L53">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="M53">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N53">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O53">
         <v>4</v>
@@ -2939,22 +2939,22 @@
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>43561</v>
+        <v>43558</v>
       </c>
       <c r="B54">
         <v>3</v>
       </c>
       <c r="C54">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D54">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E54">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="F54">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G54">
         <v>14</v>
@@ -2969,10 +2969,10 @@
         <v>78</v>
       </c>
       <c r="K54">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L54">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M54">
         <v>25</v>
@@ -2986,7 +2986,7 @@
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>43562</v>
+        <v>43559</v>
       </c>
       <c r="B55">
         <v>3</v>
@@ -2995,13 +2995,13 @@
         <v>57</v>
       </c>
       <c r="D55">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E55">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F55">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G55">
         <v>14</v>
@@ -3013,13 +3013,13 @@
         <v>0</v>
       </c>
       <c r="J55">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K55">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L55">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M55">
         <v>25</v>
@@ -3033,7 +3033,7 @@
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>43563</v>
+        <v>43560</v>
       </c>
       <c r="B56">
         <v>3</v>
@@ -3042,13 +3042,13 @@
         <v>57</v>
       </c>
       <c r="D56">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E56">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F56">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G56">
         <v>14</v>
@@ -3060,13 +3060,13 @@
         <v>0</v>
       </c>
       <c r="J56">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K56">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L56">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M56">
         <v>25</v>
@@ -3080,7 +3080,7 @@
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>43564</v>
+        <v>43561</v>
       </c>
       <c r="B57">
         <v>3</v>
@@ -3089,13 +3089,13 @@
         <v>57</v>
       </c>
       <c r="D57">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E57">
         <v>75</v>
       </c>
       <c r="F57">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G57">
         <v>14</v>
@@ -3107,13 +3107,13 @@
         <v>0</v>
       </c>
       <c r="J57">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K57">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L57">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M57">
         <v>25</v>
@@ -3127,7 +3127,7 @@
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>43565</v>
+        <v>43562</v>
       </c>
       <c r="B58">
         <v>3</v>
@@ -3142,7 +3142,7 @@
         <v>75</v>
       </c>
       <c r="F58">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G58">
         <v>14</v>
@@ -3169,6 +3169,147 @@
         <v>12</v>
       </c>
       <c r="O58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>43563</v>
+      </c>
+      <c r="B59">
+        <v>3</v>
+      </c>
+      <c r="C59">
+        <v>57</v>
+      </c>
+      <c r="D59">
+        <v>73</v>
+      </c>
+      <c r="E59">
+        <v>75</v>
+      </c>
+      <c r="F59">
+        <v>57</v>
+      </c>
+      <c r="G59">
+        <v>14</v>
+      </c>
+      <c r="H59">
+        <v>5</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>77</v>
+      </c>
+      <c r="K59">
+        <v>35</v>
+      </c>
+      <c r="L59">
+        <v>35</v>
+      </c>
+      <c r="M59">
+        <v>25</v>
+      </c>
+      <c r="N59">
+        <v>12</v>
+      </c>
+      <c r="O59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>43564</v>
+      </c>
+      <c r="B60">
+        <v>3</v>
+      </c>
+      <c r="C60">
+        <v>57</v>
+      </c>
+      <c r="D60">
+        <v>73</v>
+      </c>
+      <c r="E60">
+        <v>75</v>
+      </c>
+      <c r="F60">
+        <v>56</v>
+      </c>
+      <c r="G60">
+        <v>14</v>
+      </c>
+      <c r="H60">
+        <v>5</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>77</v>
+      </c>
+      <c r="K60">
+        <v>35</v>
+      </c>
+      <c r="L60">
+        <v>35</v>
+      </c>
+      <c r="M60">
+        <v>25</v>
+      </c>
+      <c r="N60">
+        <v>12</v>
+      </c>
+      <c r="O60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>43565</v>
+      </c>
+      <c r="B61">
+        <v>3</v>
+      </c>
+      <c r="C61">
+        <v>57</v>
+      </c>
+      <c r="D61">
+        <v>73</v>
+      </c>
+      <c r="E61">
+        <v>75</v>
+      </c>
+      <c r="F61">
+        <v>56</v>
+      </c>
+      <c r="G61">
+        <v>14</v>
+      </c>
+      <c r="H61">
+        <v>5</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>77</v>
+      </c>
+      <c r="K61">
+        <v>35</v>
+      </c>
+      <c r="L61">
+        <v>35</v>
+      </c>
+      <c r="M61">
+        <v>25</v>
+      </c>
+      <c r="N61">
+        <v>12</v>
+      </c>
+      <c r="O61">
         <v>4</v>
       </c>
     </row>

--- a/excels/lite/lite-Ages-Gender.xlsx
+++ b/excels/lite/lite-Ages-Gender.xlsx
@@ -435,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O61"/>
+  <dimension ref="A1:O64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3313,6 +3313,147 @@
         <v>4</v>
       </c>
     </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>43566</v>
+      </c>
+      <c r="B62">
+        <v>3</v>
+      </c>
+      <c r="C62">
+        <v>57</v>
+      </c>
+      <c r="D62">
+        <v>73</v>
+      </c>
+      <c r="E62">
+        <v>75</v>
+      </c>
+      <c r="F62">
+        <v>56</v>
+      </c>
+      <c r="G62">
+        <v>14</v>
+      </c>
+      <c r="H62">
+        <v>5</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>77</v>
+      </c>
+      <c r="K62">
+        <v>35</v>
+      </c>
+      <c r="L62">
+        <v>35</v>
+      </c>
+      <c r="M62">
+        <v>25</v>
+      </c>
+      <c r="N62">
+        <v>12</v>
+      </c>
+      <c r="O62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>43567</v>
+      </c>
+      <c r="B63">
+        <v>3</v>
+      </c>
+      <c r="C63">
+        <v>57</v>
+      </c>
+      <c r="D63">
+        <v>73</v>
+      </c>
+      <c r="E63">
+        <v>77</v>
+      </c>
+      <c r="F63">
+        <v>56</v>
+      </c>
+      <c r="G63">
+        <v>14</v>
+      </c>
+      <c r="H63">
+        <v>5</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>77</v>
+      </c>
+      <c r="K63">
+        <v>35</v>
+      </c>
+      <c r="L63">
+        <v>35</v>
+      </c>
+      <c r="M63">
+        <v>25</v>
+      </c>
+      <c r="N63">
+        <v>12</v>
+      </c>
+      <c r="O63">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>43568</v>
+      </c>
+      <c r="B64">
+        <v>3</v>
+      </c>
+      <c r="C64">
+        <v>57</v>
+      </c>
+      <c r="D64">
+        <v>73</v>
+      </c>
+      <c r="E64">
+        <v>80</v>
+      </c>
+      <c r="F64">
+        <v>56</v>
+      </c>
+      <c r="G64">
+        <v>14</v>
+      </c>
+      <c r="H64">
+        <v>5</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>77</v>
+      </c>
+      <c r="K64">
+        <v>35</v>
+      </c>
+      <c r="L64">
+        <v>35</v>
+      </c>
+      <c r="M64">
+        <v>25</v>
+      </c>
+      <c r="N64">
+        <v>12</v>
+      </c>
+      <c r="O64">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/excels/lite/lite-Ages-Gender.xlsx
+++ b/excels/lite/lite-Ages-Gender.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3640" yWindow="5680" windowWidth="33020" windowHeight="14480"/>
+    <workbookView xWindow="3560" yWindow="5340" windowWidth="33020" windowHeight="14480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -435,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O64"/>
+  <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64"/>
+      <selection activeCell="A65" sqref="A65:XFD65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3454,6 +3454,9 @@
         <v>4</v>
       </c>
     </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/excels/lite/lite-Ages-Gender.xlsx
+++ b/excels/lite/lite-Ages-Gender.xlsx
@@ -437,8 +437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65:XFD65"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3454,8 +3454,52 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65" s="1"/>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>43569</v>
+      </c>
+      <c r="B65">
+        <v>3</v>
+      </c>
+      <c r="C65">
+        <v>57</v>
+      </c>
+      <c r="D65">
+        <v>73</v>
+      </c>
+      <c r="E65">
+        <v>80</v>
+      </c>
+      <c r="F65">
+        <v>56</v>
+      </c>
+      <c r="G65">
+        <v>14</v>
+      </c>
+      <c r="H65">
+        <v>5</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>77</v>
+      </c>
+      <c r="K65">
+        <v>35</v>
+      </c>
+      <c r="L65">
+        <v>35</v>
+      </c>
+      <c r="M65">
+        <v>25</v>
+      </c>
+      <c r="N65">
+        <v>12</v>
+      </c>
+      <c r="O65">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excels/lite/lite-Ages-Gender.xlsx
+++ b/excels/lite/lite-Ages-Gender.xlsx
@@ -435,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O65"/>
+  <dimension ref="A1:O66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3501,6 +3501,53 @@
         <v>4</v>
       </c>
     </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>43570</v>
+      </c>
+      <c r="B66">
+        <v>3</v>
+      </c>
+      <c r="C66">
+        <v>57</v>
+      </c>
+      <c r="D66">
+        <v>73</v>
+      </c>
+      <c r="E66">
+        <v>80</v>
+      </c>
+      <c r="F66">
+        <v>56</v>
+      </c>
+      <c r="G66">
+        <v>14</v>
+      </c>
+      <c r="H66">
+        <v>5</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>77</v>
+      </c>
+      <c r="K66">
+        <v>35</v>
+      </c>
+      <c r="L66">
+        <v>35</v>
+      </c>
+      <c r="M66">
+        <v>25</v>
+      </c>
+      <c r="N66">
+        <v>12</v>
+      </c>
+      <c r="O66">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/excels/lite/lite-Ages-Gender.xlsx
+++ b/excels/lite/lite-Ages-Gender.xlsx
@@ -435,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O66"/>
+  <dimension ref="A1:O67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3548,6 +3548,53 @@
         <v>4</v>
       </c>
     </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>43571</v>
+      </c>
+      <c r="B67">
+        <v>3</v>
+      </c>
+      <c r="C67">
+        <v>57</v>
+      </c>
+      <c r="D67">
+        <v>73</v>
+      </c>
+      <c r="E67">
+        <v>80</v>
+      </c>
+      <c r="F67">
+        <v>56</v>
+      </c>
+      <c r="G67">
+        <v>14</v>
+      </c>
+      <c r="H67">
+        <v>5</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>77</v>
+      </c>
+      <c r="K67">
+        <v>35</v>
+      </c>
+      <c r="L67">
+        <v>35</v>
+      </c>
+      <c r="M67">
+        <v>25</v>
+      </c>
+      <c r="N67">
+        <v>12</v>
+      </c>
+      <c r="O67">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/excels/lite/lite-Ages-Gender.xlsx
+++ b/excels/lite/lite-Ages-Gender.xlsx
@@ -435,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O67"/>
+  <dimension ref="A1:O68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+      <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3595,6 +3595,53 @@
         <v>4</v>
       </c>
     </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>43572</v>
+      </c>
+      <c r="B68">
+        <v>3</v>
+      </c>
+      <c r="C68">
+        <v>57</v>
+      </c>
+      <c r="D68">
+        <v>73</v>
+      </c>
+      <c r="E68">
+        <v>79</v>
+      </c>
+      <c r="F68">
+        <v>57</v>
+      </c>
+      <c r="G68">
+        <v>14</v>
+      </c>
+      <c r="H68">
+        <v>5</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>77</v>
+      </c>
+      <c r="K68">
+        <v>35</v>
+      </c>
+      <c r="L68">
+        <v>35</v>
+      </c>
+      <c r="M68">
+        <v>25</v>
+      </c>
+      <c r="N68">
+        <v>12</v>
+      </c>
+      <c r="O68">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/excels/lite/lite-Ages-Gender.xlsx
+++ b/excels/lite/lite-Ages-Gender.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3560" yWindow="5340" windowWidth="33020" windowHeight="14480"/>
+    <workbookView xWindow="0" yWindow="1520" windowWidth="25600" windowHeight="14480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -435,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O68"/>
+  <dimension ref="A1:O72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3642,6 +3642,194 @@
         <v>4</v>
       </c>
     </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>43573</v>
+      </c>
+      <c r="B69">
+        <v>3</v>
+      </c>
+      <c r="C69">
+        <v>57</v>
+      </c>
+      <c r="D69">
+        <v>74</v>
+      </c>
+      <c r="E69">
+        <v>79</v>
+      </c>
+      <c r="F69">
+        <v>57</v>
+      </c>
+      <c r="G69">
+        <v>14</v>
+      </c>
+      <c r="H69">
+        <v>5</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>77</v>
+      </c>
+      <c r="K69">
+        <v>35</v>
+      </c>
+      <c r="L69">
+        <v>35</v>
+      </c>
+      <c r="M69">
+        <v>25</v>
+      </c>
+      <c r="N69">
+        <v>12</v>
+      </c>
+      <c r="O69">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>43574</v>
+      </c>
+      <c r="B70">
+        <v>3</v>
+      </c>
+      <c r="C70">
+        <v>57</v>
+      </c>
+      <c r="D70">
+        <v>74</v>
+      </c>
+      <c r="E70">
+        <v>79</v>
+      </c>
+      <c r="F70">
+        <v>57</v>
+      </c>
+      <c r="G70">
+        <v>14</v>
+      </c>
+      <c r="H70">
+        <v>5</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>77</v>
+      </c>
+      <c r="K70">
+        <v>35</v>
+      </c>
+      <c r="L70">
+        <v>35</v>
+      </c>
+      <c r="M70">
+        <v>25</v>
+      </c>
+      <c r="N70">
+        <v>12</v>
+      </c>
+      <c r="O70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>43575</v>
+      </c>
+      <c r="B71">
+        <v>3</v>
+      </c>
+      <c r="C71">
+        <v>59</v>
+      </c>
+      <c r="D71">
+        <v>75</v>
+      </c>
+      <c r="E71">
+        <v>95</v>
+      </c>
+      <c r="F71">
+        <v>63</v>
+      </c>
+      <c r="G71">
+        <v>15</v>
+      </c>
+      <c r="H71">
+        <v>6</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>74</v>
+      </c>
+      <c r="K71">
+        <v>37</v>
+      </c>
+      <c r="L71">
+        <v>36</v>
+      </c>
+      <c r="M71">
+        <v>26</v>
+      </c>
+      <c r="N71">
+        <v>12</v>
+      </c>
+      <c r="O71">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>43576</v>
+      </c>
+      <c r="B72">
+        <v>3</v>
+      </c>
+      <c r="C72">
+        <v>62</v>
+      </c>
+      <c r="D72">
+        <v>77</v>
+      </c>
+      <c r="E72">
+        <v>107</v>
+      </c>
+      <c r="F72">
+        <v>64</v>
+      </c>
+      <c r="G72">
+        <v>14</v>
+      </c>
+      <c r="H72">
+        <v>6</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>75</v>
+      </c>
+      <c r="K72">
+        <v>37</v>
+      </c>
+      <c r="L72">
+        <v>37</v>
+      </c>
+      <c r="M72">
+        <v>26</v>
+      </c>
+      <c r="N72">
+        <v>12</v>
+      </c>
+      <c r="O72">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/excels/lite/lite-Ages-Gender.xlsx
+++ b/excels/lite/lite-Ages-Gender.xlsx
@@ -438,7 +438,7 @@
   <dimension ref="A1:O72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72"/>
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3750,7 +3750,7 @@
         <v>75</v>
       </c>
       <c r="E71">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="F71">
         <v>63</v>

--- a/excels/lite/lite-Ages-Gender.xlsx
+++ b/excels/lite/lite-Ages-Gender.xlsx
@@ -435,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O72"/>
+  <dimension ref="A1:O73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
+      <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3830,6 +3830,53 @@
         <v>4</v>
       </c>
     </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>43577</v>
+      </c>
+      <c r="B73">
+        <v>3</v>
+      </c>
+      <c r="C73">
+        <v>63</v>
+      </c>
+      <c r="D73">
+        <v>77</v>
+      </c>
+      <c r="E73">
+        <v>118</v>
+      </c>
+      <c r="F73">
+        <v>68</v>
+      </c>
+      <c r="G73">
+        <v>16</v>
+      </c>
+      <c r="H73">
+        <v>6</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>75</v>
+      </c>
+      <c r="K73">
+        <v>37</v>
+      </c>
+      <c r="L73">
+        <v>38</v>
+      </c>
+      <c r="M73">
+        <v>26</v>
+      </c>
+      <c r="N73">
+        <v>12</v>
+      </c>
+      <c r="O73">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/excels/lite/lite-Ages-Gender.xlsx
+++ b/excels/lite/lite-Ages-Gender.xlsx
@@ -435,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O73"/>
+  <dimension ref="A1:O74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73"/>
+      <selection activeCell="H76" sqref="H76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3877,6 +3877,53 @@
         <v>4</v>
       </c>
     </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>43578</v>
+      </c>
+      <c r="B74">
+        <v>3</v>
+      </c>
+      <c r="C74">
+        <v>63</v>
+      </c>
+      <c r="D74">
+        <v>77</v>
+      </c>
+      <c r="E74">
+        <v>129</v>
+      </c>
+      <c r="F74">
+        <v>68</v>
+      </c>
+      <c r="G74">
+        <v>17</v>
+      </c>
+      <c r="H74">
+        <v>6</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>75</v>
+      </c>
+      <c r="K74">
+        <v>37</v>
+      </c>
+      <c r="L74">
+        <v>38</v>
+      </c>
+      <c r="M74">
+        <v>26</v>
+      </c>
+      <c r="N74">
+        <v>12</v>
+      </c>
+      <c r="O74">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/excels/lite/lite-Ages-Gender.xlsx
+++ b/excels/lite/lite-Ages-Gender.xlsx
@@ -435,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O74"/>
+  <dimension ref="A1:O75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="H76" sqref="H76"/>
+      <selection activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3924,6 +3924,53 @@
         <v>4</v>
       </c>
     </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>43579</v>
+      </c>
+      <c r="B75">
+        <v>3</v>
+      </c>
+      <c r="C75">
+        <v>64</v>
+      </c>
+      <c r="D75">
+        <v>78</v>
+      </c>
+      <c r="E75">
+        <v>135</v>
+      </c>
+      <c r="F75">
+        <v>70</v>
+      </c>
+      <c r="G75">
+        <v>16</v>
+      </c>
+      <c r="H75">
+        <v>6</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>76</v>
+      </c>
+      <c r="K75">
+        <v>37</v>
+      </c>
+      <c r="L75">
+        <v>39</v>
+      </c>
+      <c r="M75">
+        <v>26</v>
+      </c>
+      <c r="N75">
+        <v>12</v>
+      </c>
+      <c r="O75">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/excels/lite/lite-Ages-Gender.xlsx
+++ b/excels/lite/lite-Ages-Gender.xlsx
@@ -435,15 +435,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O75"/>
+  <dimension ref="A1:O78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="E77" sqref="E77"/>
+      <selection activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
@@ -3968,6 +3968,147 @@
         <v>12</v>
       </c>
       <c r="O75">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>43580</v>
+      </c>
+      <c r="B76">
+        <v>3</v>
+      </c>
+      <c r="C76">
+        <v>64</v>
+      </c>
+      <c r="D76">
+        <v>80</v>
+      </c>
+      <c r="E76">
+        <v>143</v>
+      </c>
+      <c r="F76">
+        <v>72</v>
+      </c>
+      <c r="G76">
+        <v>16</v>
+      </c>
+      <c r="H76">
+        <v>6</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>76</v>
+      </c>
+      <c r="K76">
+        <v>37</v>
+      </c>
+      <c r="L76">
+        <v>39</v>
+      </c>
+      <c r="M76">
+        <v>26</v>
+      </c>
+      <c r="N76">
+        <v>12</v>
+      </c>
+      <c r="O76">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <v>43581</v>
+      </c>
+      <c r="B77">
+        <v>3</v>
+      </c>
+      <c r="C77">
+        <v>64</v>
+      </c>
+      <c r="D77">
+        <v>81</v>
+      </c>
+      <c r="E77">
+        <v>146</v>
+      </c>
+      <c r="F77">
+        <v>76</v>
+      </c>
+      <c r="G77">
+        <v>17</v>
+      </c>
+      <c r="H77">
+        <v>6</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>77</v>
+      </c>
+      <c r="K77">
+        <v>37</v>
+      </c>
+      <c r="L77">
+        <v>39</v>
+      </c>
+      <c r="M77">
+        <v>26</v>
+      </c>
+      <c r="N77">
+        <v>12</v>
+      </c>
+      <c r="O77">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <v>43582</v>
+      </c>
+      <c r="B78">
+        <v>3</v>
+      </c>
+      <c r="C78">
+        <v>64</v>
+      </c>
+      <c r="D78">
+        <v>82</v>
+      </c>
+      <c r="E78">
+        <v>150</v>
+      </c>
+      <c r="F78">
+        <v>76</v>
+      </c>
+      <c r="G78">
+        <v>17</v>
+      </c>
+      <c r="H78">
+        <v>7</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78">
+        <v>78</v>
+      </c>
+      <c r="K78">
+        <v>37</v>
+      </c>
+      <c r="L78">
+        <v>39</v>
+      </c>
+      <c r="M78">
+        <v>26</v>
+      </c>
+      <c r="N78">
+        <v>12</v>
+      </c>
+      <c r="O78">
         <v>4</v>
       </c>
     </row>

--- a/excels/lite/lite-Ages-Gender.xlsx
+++ b/excels/lite/lite-Ages-Gender.xlsx
@@ -435,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O78"/>
+  <dimension ref="A1:O80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4112,6 +4112,100 @@
         <v>4</v>
       </c>
     </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <v>43583</v>
+      </c>
+      <c r="B79">
+        <v>3</v>
+      </c>
+      <c r="C79">
+        <v>64</v>
+      </c>
+      <c r="D79">
+        <v>82</v>
+      </c>
+      <c r="E79">
+        <v>152</v>
+      </c>
+      <c r="F79">
+        <v>78</v>
+      </c>
+      <c r="G79">
+        <v>17</v>
+      </c>
+      <c r="H79">
+        <v>7</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <v>78</v>
+      </c>
+      <c r="K79">
+        <v>37</v>
+      </c>
+      <c r="L79">
+        <v>39</v>
+      </c>
+      <c r="M79">
+        <v>26</v>
+      </c>
+      <c r="N79">
+        <v>12</v>
+      </c>
+      <c r="O79">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <v>43584</v>
+      </c>
+      <c r="B80">
+        <v>3</v>
+      </c>
+      <c r="C80">
+        <v>64</v>
+      </c>
+      <c r="D80">
+        <v>83</v>
+      </c>
+      <c r="E80">
+        <v>153</v>
+      </c>
+      <c r="F80">
+        <v>79</v>
+      </c>
+      <c r="G80">
+        <v>17</v>
+      </c>
+      <c r="H80">
+        <v>7</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <v>77</v>
+      </c>
+      <c r="K80">
+        <v>38</v>
+      </c>
+      <c r="L80">
+        <v>39</v>
+      </c>
+      <c r="M80">
+        <v>26</v>
+      </c>
+      <c r="N80">
+        <v>12</v>
+      </c>
+      <c r="O80">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/excels/lite/lite-Ages-Gender.xlsx
+++ b/excels/lite/lite-Ages-Gender.xlsx
@@ -435,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O80"/>
+  <dimension ref="A1:O81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4206,6 +4206,53 @@
         <v>4</v>
       </c>
     </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <v>43586</v>
+      </c>
+      <c r="B81">
+        <v>3</v>
+      </c>
+      <c r="C81">
+        <v>64</v>
+      </c>
+      <c r="D81">
+        <v>84</v>
+      </c>
+      <c r="E81">
+        <v>161</v>
+      </c>
+      <c r="F81">
+        <v>82</v>
+      </c>
+      <c r="G81">
+        <v>17</v>
+      </c>
+      <c r="H81">
+        <v>7</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81">
+        <v>77</v>
+      </c>
+      <c r="K81">
+        <v>39</v>
+      </c>
+      <c r="L81">
+        <v>41</v>
+      </c>
+      <c r="M81">
+        <v>26</v>
+      </c>
+      <c r="N81">
+        <v>12</v>
+      </c>
+      <c r="O81">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
